--- a/Code/Results/Cases/Case_3_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_58/res_line/loading_percent.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.32518335391493</v>
+        <v>26.32518335391478</v>
       </c>
       <c r="C2">
-        <v>12.99748466324886</v>
+        <v>12.99748466324868</v>
       </c>
       <c r="D2">
-        <v>9.465948077594511</v>
+        <v>9.465948077594529</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>30.52347044937018</v>
+        <v>30.52347044937005</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.29239439251093</v>
+        <v>24.29239439251104</v>
       </c>
       <c r="C3">
-        <v>12.07738470653061</v>
+        <v>12.07738470653059</v>
       </c>
       <c r="D3">
-        <v>8.935066467962944</v>
+        <v>8.935066467962873</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.18437915858822</v>
+        <v>59.18437915858805</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>28.09105807993079</v>
+        <v>28.0910580799307</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.99963656714453</v>
+        <v>22.99963656714439</v>
       </c>
       <c r="C4">
-        <v>11.49236119646047</v>
+        <v>11.49236119646065</v>
       </c>
       <c r="D4">
-        <v>8.606378437206349</v>
+        <v>8.606378437206383</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.48773962226977</v>
+        <v>56.48773962226959</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>26.55663554990399</v>
+        <v>26.55663554990398</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.46083972956643</v>
+        <v>22.46083972956648</v>
       </c>
       <c r="C5">
-        <v>11.2485959305973</v>
+        <v>11.2485959305971</v>
       </c>
       <c r="D5">
-        <v>8.471631710745267</v>
+        <v>8.471631710745205</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.37279027082069</v>
+        <v>55.37279027082057</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>25.91974738682559</v>
+        <v>25.91974738682555</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.37062859204823</v>
+        <v>22.37062859204812</v>
       </c>
       <c r="C6">
-        <v>11.20778668579946</v>
+        <v>11.20778668579925</v>
       </c>
       <c r="D6">
-        <v>8.449206089644418</v>
+        <v>8.449206089644413</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.18666791489236</v>
+        <v>55.18666791489212</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>25.81325766744934</v>
+        <v>25.81325766744932</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.99241963456106</v>
+        <v>22.99241963456105</v>
       </c>
       <c r="C7">
-        <v>11.48909578946647</v>
+        <v>11.48909578946664</v>
       </c>
       <c r="D7">
-        <v>8.604564569111151</v>
+        <v>8.604564569111071</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.47276880549704</v>
+        <v>56.47276880549714</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>26.54809479645986</v>
+        <v>26.54809479645978</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.63303684090582</v>
+        <v>25.63303684090586</v>
       </c>
       <c r="C8">
-        <v>12.68419566539115</v>
+        <v>12.68419566539119</v>
       </c>
       <c r="D8">
-        <v>9.283377071433451</v>
+        <v>9.283377071433616</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.00928667707111</v>
+        <v>62.00928667707154</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>29.69240477499129</v>
+        <v>29.69240477499143</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.49972611286008</v>
+        <v>30.49972611286014</v>
       </c>
       <c r="C9">
-        <v>14.88589182158758</v>
+        <v>14.88589182158786</v>
       </c>
       <c r="D9">
-        <v>10.6016110615339</v>
+        <v>10.60161106153399</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>72.44683603305776</v>
+        <v>72.44683603305833</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>35.60772282413053</v>
+        <v>35.60772282413046</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.96189282251966</v>
+        <v>33.96189282251964</v>
       </c>
       <c r="C10">
-        <v>16.4480471008211</v>
+        <v>16.44804710082111</v>
       </c>
       <c r="D10">
-        <v>11.58105905141507</v>
+        <v>11.58105905141514</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>80.13811161051447</v>
+        <v>80.13811161051437</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>39.93833212652762</v>
+        <v>39.93833212652769</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.53694358689042</v>
+        <v>35.53694358689054</v>
       </c>
       <c r="C11">
-        <v>17.15642473212272</v>
+        <v>17.156424732123</v>
       </c>
       <c r="D11">
-        <v>12.03590264466324</v>
+        <v>12.03590264466333</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>83.68630659884708</v>
+        <v>83.68630659884778</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>41.95134749344416</v>
+        <v>41.95134749344415</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.1363583084539</v>
+        <v>36.13635830845384</v>
       </c>
       <c r="C12">
-        <v>17.42548422708274</v>
+        <v>17.42548422708282</v>
       </c>
       <c r="D12">
-        <v>12.2103528867919</v>
+        <v>12.21035288679178</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>85.03735753222888</v>
+        <v>85.0373575322284</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>42.72560918357208</v>
+        <v>42.72560918357204</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.00707226078791</v>
+        <v>36.00707226078821</v>
       </c>
       <c r="C13">
-        <v>17.36747916590758</v>
+        <v>17.36747916590778</v>
       </c>
       <c r="D13">
-        <v>12.1726658575437</v>
+        <v>12.17266585754385</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>84.74593422868817</v>
+        <v>84.74593422868898</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>42.5582076014946</v>
+        <v>42.55820760149476</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.58617731057937</v>
+        <v>35.58617731057927</v>
       </c>
       <c r="C14">
-        <v>17.17853629976311</v>
+        <v>17.17853629976299</v>
       </c>
       <c r="D14">
-        <v>12.05020421149695</v>
+        <v>12.05020421149689</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>83.79726716061764</v>
+        <v>83.79726716061732</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>42.0147649151634</v>
+        <v>42.01476491516346</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.32886071680817</v>
+        <v>35.32886071680843</v>
       </c>
       <c r="C15">
-        <v>17.06294910557484</v>
+        <v>17.06294910557489</v>
       </c>
       <c r="D15">
-        <v>11.97551262557355</v>
+        <v>11.9755126255737</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>83.21736402564439</v>
+        <v>83.21736402564503</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>41.68366131145565</v>
+        <v>41.6836613114557</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.85919216686749</v>
+        <v>33.85919216686779</v>
       </c>
       <c r="C16">
-        <v>16.40179684930144</v>
+        <v>16.40179684930156</v>
       </c>
       <c r="D16">
-        <v>11.55158835954305</v>
+        <v>11.55158835954321</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>79.90689395729227</v>
+        <v>79.90689395729298</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>39.80808849215586</v>
+        <v>39.80808849215585</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,10 +982,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.95943281560313</v>
+        <v>32.95943281560312</v>
       </c>
       <c r="C17">
-        <v>15.9963281133752</v>
+        <v>15.9963281133751</v>
       </c>
       <c r="D17">
         <v>11.29442961624414</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>77.88221310106414</v>
+        <v>77.8822131010641</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.44170036085264</v>
+        <v>32.44170036085277</v>
       </c>
       <c r="C18">
-        <v>15.76281646824955</v>
+        <v>15.76281646824943</v>
       </c>
       <c r="D18">
-        <v>11.14732539450026</v>
+        <v>11.14732539450041</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>76.71814680965184</v>
+        <v>76.71814680965265</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>38.02212236086704</v>
+        <v>38.0221223608672</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.2662934275996</v>
+        <v>32.2662934275999</v>
       </c>
       <c r="C19">
-        <v>15.68367328842874</v>
+        <v>15.68367328842894</v>
       </c>
       <c r="D19">
-        <v>11.09763534737392</v>
+        <v>11.09763534737413</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>76.32394555194413</v>
+        <v>76.32394555194531</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>37.80256776758113</v>
+        <v>37.80256776758124</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.05521764218655</v>
+        <v>33.05521764218668</v>
       </c>
       <c r="C20">
-        <v>16.03951453502677</v>
+        <v>16.03951453502676</v>
       </c>
       <c r="D20">
-        <v>11.32171579460979</v>
+        <v>11.32171579460973</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>78.0976576437204</v>
+        <v>78.09765764372013</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>38.79251196836212</v>
+        <v>38.79251196836226</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.70969458223699</v>
+        <v>35.70969458223711</v>
       </c>
       <c r="C21">
-        <v>17.23400044282362</v>
+        <v>17.23400044282374</v>
       </c>
       <c r="D21">
-        <v>12.08610546281397</v>
+        <v>12.086105462814</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>84.07565314120596</v>
+        <v>84.0756531412065</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>42.17400436407105</v>
+        <v>42.17400436407109</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.46417030707118</v>
+        <v>37.46417030707096</v>
       </c>
       <c r="C22">
-        <v>18.02023289502493</v>
+        <v>18.02023289502466</v>
       </c>
       <c r="D22">
-        <v>12.59925685466643</v>
+        <v>12.59925685466633</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>88.03054008111093</v>
+        <v>88.03054008111029</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>44.45846023433327</v>
+        <v>44.45846023433312</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.52468850831498</v>
+        <v>36.52468850831489</v>
       </c>
       <c r="C23">
-        <v>17.59961453680742</v>
+        <v>17.59961453680736</v>
       </c>
       <c r="D23">
-        <v>12.32374708825073</v>
+        <v>12.32374708825075</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>85.91273099035278</v>
+        <v>85.91273099035274</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>43.22979721186783</v>
+        <v>43.22979721186765</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.01191492783259</v>
+        <v>33.01191492783271</v>
       </c>
       <c r="C24">
-        <v>16.01999128713847</v>
+        <v>16.01999128713855</v>
       </c>
       <c r="D24">
-        <v>11.30937747012731</v>
+        <v>11.30937747012732</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>78.00025574260442</v>
+        <v>78.00025574260427</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>38.73800922995865</v>
+        <v>38.73800922995864</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.20972958939409</v>
+        <v>29.20972958939403</v>
       </c>
       <c r="C25">
-        <v>14.30268910869676</v>
+        <v>14.30268910869677</v>
       </c>
       <c r="D25">
-        <v>10.24483726279376</v>
+        <v>10.24483726279371</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.65741447182408</v>
+        <v>69.65741447182404</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>34.02235206675541</v>
+        <v>34.02235206675525</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_58/res_line/loading_percent.xlsx
@@ -412,13 +412,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.32518335391478</v>
+        <v>26.32518335391493</v>
       </c>
       <c r="C2">
-        <v>12.99748466324868</v>
+        <v>12.99748466324886</v>
       </c>
       <c r="D2">
-        <v>9.465948077594529</v>
+        <v>9.465948077594511</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>30.52347044937005</v>
+        <v>30.52347044937018</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.29239439251104</v>
+        <v>24.29239439251093</v>
       </c>
       <c r="C3">
-        <v>12.07738470653059</v>
+        <v>12.07738470653061</v>
       </c>
       <c r="D3">
-        <v>8.935066467962873</v>
+        <v>8.935066467962944</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.18437915858805</v>
+        <v>59.18437915858822</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>28.0910580799307</v>
+        <v>28.09105807993079</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.99963656714439</v>
+        <v>22.99963656714453</v>
       </c>
       <c r="C4">
-        <v>11.49236119646065</v>
+        <v>11.49236119646047</v>
       </c>
       <c r="D4">
-        <v>8.606378437206383</v>
+        <v>8.606378437206349</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.48773962226959</v>
+        <v>56.48773962226977</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>26.55663554990398</v>
+        <v>26.55663554990399</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.46083972956648</v>
+        <v>22.46083972956643</v>
       </c>
       <c r="C5">
-        <v>11.2485959305971</v>
+        <v>11.2485959305973</v>
       </c>
       <c r="D5">
-        <v>8.471631710745205</v>
+        <v>8.471631710745267</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.37279027082057</v>
+        <v>55.37279027082069</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>25.91974738682555</v>
+        <v>25.91974738682559</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.37062859204812</v>
+        <v>22.37062859204823</v>
       </c>
       <c r="C6">
-        <v>11.20778668579925</v>
+        <v>11.20778668579946</v>
       </c>
       <c r="D6">
-        <v>8.449206089644413</v>
+        <v>8.449206089644418</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.18666791489212</v>
+        <v>55.18666791489236</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>25.81325766744932</v>
+        <v>25.81325766744934</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.99241963456105</v>
+        <v>22.99241963456106</v>
       </c>
       <c r="C7">
-        <v>11.48909578946664</v>
+        <v>11.48909578946647</v>
       </c>
       <c r="D7">
-        <v>8.604564569111071</v>
+        <v>8.604564569111151</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.47276880549714</v>
+        <v>56.47276880549704</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>26.54809479645978</v>
+        <v>26.54809479645986</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.63303684090586</v>
+        <v>25.63303684090582</v>
       </c>
       <c r="C8">
-        <v>12.68419566539119</v>
+        <v>12.68419566539115</v>
       </c>
       <c r="D8">
-        <v>9.283377071433616</v>
+        <v>9.283377071433451</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.00928667707154</v>
+        <v>62.00928667707111</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>29.69240477499143</v>
+        <v>29.69240477499129</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.49972611286014</v>
+        <v>30.49972611286008</v>
       </c>
       <c r="C9">
-        <v>14.88589182158786</v>
+        <v>14.88589182158758</v>
       </c>
       <c r="D9">
-        <v>10.60161106153399</v>
+        <v>10.6016110615339</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>72.44683603305833</v>
+        <v>72.44683603305776</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>35.60772282413046</v>
+        <v>35.60772282413053</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.96189282251964</v>
+        <v>33.96189282251966</v>
       </c>
       <c r="C10">
-        <v>16.44804710082111</v>
+        <v>16.4480471008211</v>
       </c>
       <c r="D10">
-        <v>11.58105905141514</v>
+        <v>11.58105905141507</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>80.13811161051437</v>
+        <v>80.13811161051447</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>39.93833212652769</v>
+        <v>39.93833212652762</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.53694358689054</v>
+        <v>35.53694358689042</v>
       </c>
       <c r="C11">
-        <v>17.156424732123</v>
+        <v>17.15642473212272</v>
       </c>
       <c r="D11">
-        <v>12.03590264466333</v>
+        <v>12.03590264466324</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>83.68630659884778</v>
+        <v>83.68630659884708</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>41.95134749344415</v>
+        <v>41.95134749344416</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.13635830845384</v>
+        <v>36.1363583084539</v>
       </c>
       <c r="C12">
-        <v>17.42548422708282</v>
+        <v>17.42548422708274</v>
       </c>
       <c r="D12">
-        <v>12.21035288679178</v>
+        <v>12.2103528867919</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>85.0373575322284</v>
+        <v>85.03735753222888</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>42.72560918357204</v>
+        <v>42.72560918357208</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.00707226078821</v>
+        <v>36.00707226078791</v>
       </c>
       <c r="C13">
-        <v>17.36747916590778</v>
+        <v>17.36747916590758</v>
       </c>
       <c r="D13">
-        <v>12.17266585754385</v>
+        <v>12.1726658575437</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>84.74593422868898</v>
+        <v>84.74593422868817</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>42.55820760149476</v>
+        <v>42.5582076014946</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.58617731057927</v>
+        <v>35.58617731057937</v>
       </c>
       <c r="C14">
-        <v>17.17853629976299</v>
+        <v>17.17853629976311</v>
       </c>
       <c r="D14">
-        <v>12.05020421149689</v>
+        <v>12.05020421149695</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>83.79726716061732</v>
+        <v>83.79726716061764</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>42.01476491516346</v>
+        <v>42.0147649151634</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.32886071680843</v>
+        <v>35.32886071680817</v>
       </c>
       <c r="C15">
-        <v>17.06294910557489</v>
+        <v>17.06294910557484</v>
       </c>
       <c r="D15">
-        <v>11.9755126255737</v>
+        <v>11.97551262557355</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>83.21736402564503</v>
+        <v>83.21736402564439</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>41.6836613114557</v>
+        <v>41.68366131145565</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.85919216686779</v>
+        <v>33.85919216686749</v>
       </c>
       <c r="C16">
-        <v>16.40179684930156</v>
+        <v>16.40179684930144</v>
       </c>
       <c r="D16">
-        <v>11.55158835954321</v>
+        <v>11.55158835954305</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>79.90689395729298</v>
+        <v>79.90689395729227</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>39.80808849215585</v>
+        <v>39.80808849215586</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,10 +982,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.95943281560312</v>
+        <v>32.95943281560313</v>
       </c>
       <c r="C17">
-        <v>15.9963281133751</v>
+        <v>15.9963281133752</v>
       </c>
       <c r="D17">
         <v>11.29442961624414</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>77.8822131010641</v>
+        <v>77.88221310106414</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.44170036085277</v>
+        <v>32.44170036085264</v>
       </c>
       <c r="C18">
-        <v>15.76281646824943</v>
+        <v>15.76281646824955</v>
       </c>
       <c r="D18">
-        <v>11.14732539450041</v>
+        <v>11.14732539450026</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>76.71814680965265</v>
+        <v>76.71814680965184</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>38.0221223608672</v>
+        <v>38.02212236086704</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.2662934275999</v>
+        <v>32.2662934275996</v>
       </c>
       <c r="C19">
-        <v>15.68367328842894</v>
+        <v>15.68367328842874</v>
       </c>
       <c r="D19">
-        <v>11.09763534737413</v>
+        <v>11.09763534737392</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>76.32394555194531</v>
+        <v>76.32394555194413</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>37.80256776758124</v>
+        <v>37.80256776758113</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.05521764218668</v>
+        <v>33.05521764218655</v>
       </c>
       <c r="C20">
-        <v>16.03951453502676</v>
+        <v>16.03951453502677</v>
       </c>
       <c r="D20">
-        <v>11.32171579460973</v>
+        <v>11.32171579460979</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>78.09765764372013</v>
+        <v>78.0976576437204</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>38.79251196836226</v>
+        <v>38.79251196836212</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.70969458223711</v>
+        <v>35.70969458223699</v>
       </c>
       <c r="C21">
-        <v>17.23400044282374</v>
+        <v>17.23400044282362</v>
       </c>
       <c r="D21">
-        <v>12.086105462814</v>
+        <v>12.08610546281397</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>84.0756531412065</v>
+        <v>84.07565314120596</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>42.17400436407109</v>
+        <v>42.17400436407105</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.46417030707096</v>
+        <v>37.46417030707118</v>
       </c>
       <c r="C22">
-        <v>18.02023289502466</v>
+        <v>18.02023289502493</v>
       </c>
       <c r="D22">
-        <v>12.59925685466633</v>
+        <v>12.59925685466643</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>88.03054008111029</v>
+        <v>88.03054008111093</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>44.45846023433312</v>
+        <v>44.45846023433327</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.52468850831489</v>
+        <v>36.52468850831498</v>
       </c>
       <c r="C23">
-        <v>17.59961453680736</v>
+        <v>17.59961453680742</v>
       </c>
       <c r="D23">
-        <v>12.32374708825075</v>
+        <v>12.32374708825073</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>85.91273099035274</v>
+        <v>85.91273099035278</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>43.22979721186765</v>
+        <v>43.22979721186783</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.01191492783271</v>
+        <v>33.01191492783259</v>
       </c>
       <c r="C24">
-        <v>16.01999128713855</v>
+        <v>16.01999128713847</v>
       </c>
       <c r="D24">
-        <v>11.30937747012732</v>
+        <v>11.30937747012731</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>78.00025574260427</v>
+        <v>78.00025574260442</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>38.73800922995864</v>
+        <v>38.73800922995865</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.20972958939403</v>
+        <v>29.20972958939409</v>
       </c>
       <c r="C25">
-        <v>14.30268910869677</v>
+        <v>14.30268910869676</v>
       </c>
       <c r="D25">
-        <v>10.24483726279371</v>
+        <v>10.24483726279376</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.65741447182404</v>
+        <v>69.65741447182408</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>34.02235206675525</v>
+        <v>34.02235206675541</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_58/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,28 +406,31 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.32518335391493</v>
+        <v>26.15124479609452</v>
       </c>
       <c r="C2">
-        <v>12.99748466324886</v>
+        <v>12.77520828646665</v>
       </c>
       <c r="D2">
-        <v>9.465948077594511</v>
+        <v>9.525480850866625</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.47766760279491</v>
+        <v>63.48332586384423</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.020009573387871</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,33 +442,36 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>30.52347044937018</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>30.44239222825462</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.29239439251093</v>
+        <v>24.13001453562503</v>
       </c>
       <c r="C3">
-        <v>12.07738470653061</v>
+        <v>11.85719135232022</v>
       </c>
       <c r="D3">
-        <v>8.935066467962944</v>
+        <v>9.004608538702072</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.18437915858822</v>
+        <v>59.23394387252571</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.037863753546712</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,33 +483,36 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>28.09105807993079</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>28.01933932436801</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.99963656714453</v>
+        <v>22.84459474074055</v>
       </c>
       <c r="C4">
-        <v>11.49236119646047</v>
+        <v>11.27314209251023</v>
       </c>
       <c r="D4">
-        <v>8.606378437206349</v>
+        <v>8.682473572991082</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.48773962226977</v>
+        <v>56.56635127095411</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.048847911198937</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,33 +524,36 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>26.55663554990399</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>26.49038437906716</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.46083972956643</v>
+        <v>22.30886917967247</v>
       </c>
       <c r="C5">
-        <v>11.2485959305973</v>
+        <v>11.02969535412258</v>
       </c>
       <c r="D5">
-        <v>8.471631710745267</v>
+        <v>8.550504876359671</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.37279027082069</v>
+        <v>55.46382260314304</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.053341412859556</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,33 +565,36 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>25.91974738682559</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>25.85567718975755</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.37062859204823</v>
+        <v>22.21917349241473</v>
       </c>
       <c r="C6">
-        <v>11.20778668579946</v>
+        <v>10.98893415794452</v>
       </c>
       <c r="D6">
-        <v>8.449206089644418</v>
+        <v>8.528547158576105</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.18666791489236</v>
+        <v>55.27979960429346</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.054088919596068</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,33 +606,36 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>25.81325766744934</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>25.7495473484551</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.99241963456106</v>
+        <v>22.83741887448905</v>
       </c>
       <c r="C7">
-        <v>11.48909578946647</v>
+        <v>11.26988130334973</v>
       </c>
       <c r="D7">
-        <v>8.604564569111151</v>
+        <v>8.680696729245787</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.47276880549704</v>
+        <v>56.55154552495305</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.04890842733989</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,33 +647,36 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>26.54809479645986</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>26.48187320315283</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.63303684090582</v>
+        <v>25.46304647399292</v>
       </c>
       <c r="C8">
-        <v>12.68419566539115</v>
+        <v>12.46270043019998</v>
       </c>
       <c r="D8">
-        <v>9.283377071433451</v>
+        <v>9.34628024216939</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.00928667707111</v>
+        <v>62.0296870992313</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.026169000489887</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,33 +688,36 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>29.69240477499129</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>29.61462743111275</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.49972611286008</v>
+        <v>30.30120066118456</v>
       </c>
       <c r="C9">
-        <v>14.88589182158758</v>
+        <v>14.65744379278827</v>
       </c>
       <c r="D9">
-        <v>10.6016110615339</v>
+        <v>10.6414560944005</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>72.44683603305776</v>
+        <v>72.36639517228417</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.981086915427011</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,33 +729,36 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>35.60772282413053</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>35.50361168722112</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.96189282251966</v>
+        <v>33.74100559347769</v>
       </c>
       <c r="C10">
-        <v>16.4480471008211</v>
+        <v>16.21262496544387</v>
       </c>
       <c r="D10">
-        <v>11.58105905141507</v>
+        <v>11.60500770249365</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>80.13811161051447</v>
+        <v>79.94331579709885</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.94646974484561</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,33 +770,36 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>39.93833212652762</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>39.80949623397512</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.53694358689042</v>
+        <v>35.30489930516711</v>
       </c>
       <c r="C11">
-        <v>17.15642473212272</v>
+        <v>16.9172380179228</v>
       </c>
       <c r="D11">
-        <v>12.03590264466324</v>
+        <v>12.05258548351782</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>83.68630659884708</v>
+        <v>83.46021563565785</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.930010788798685</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,33 +811,36 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>41.95134749344416</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>41.8088202574049</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>36.1363583084539</v>
+        <v>35.89985450537553</v>
       </c>
       <c r="C12">
-        <v>17.42548422708274</v>
+        <v>17.18475875355901</v>
       </c>
       <c r="D12">
-        <v>12.2103528867919</v>
+        <v>12.22424449425741</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>85.03735753222888</v>
+        <v>84.79904308942962</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.923629420982862</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,33 +852,36 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>42.72560918357208</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>42.57735813727955</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.00707226078791</v>
+        <v>35.77154133104623</v>
       </c>
       <c r="C13">
-        <v>17.36747916590758</v>
+        <v>17.12709073822636</v>
       </c>
       <c r="D13">
-        <v>12.1726658575437</v>
+        <v>12.18716111557706</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>84.74593422868817</v>
+        <v>84.51027326741924</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.925011298247588</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,33 +893,36 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>42.5582076014946</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>42.41121743731824</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.58617731057937</v>
+        <v>35.35377154481353</v>
       </c>
       <c r="C14">
-        <v>17.17853629976311</v>
+        <v>16.9392254740846</v>
       </c>
       <c r="D14">
-        <v>12.05020421149695</v>
+        <v>12.06665847126996</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>83.79726716061764</v>
+        <v>83.57017956525654</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.929489095785378</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,33 +934,36 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>42.0147649151634</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>41.87177904427351</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.32886071680817</v>
+        <v>35.09833510463428</v>
       </c>
       <c r="C15">
-        <v>17.06294910557484</v>
+        <v>16.82428251612851</v>
       </c>
       <c r="D15">
-        <v>11.97551262557355</v>
+        <v>11.993160332234</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>83.21736402564439</v>
+        <v>82.9954715720704</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.932210851313437</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,33 +975,36 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>41.68366131145565</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>41.54305060302409</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.85919216686749</v>
+        <v>33.6390072857856</v>
       </c>
       <c r="C16">
-        <v>16.40179684930144</v>
+        <v>16.166606739268</v>
       </c>
       <c r="D16">
-        <v>11.55158835954305</v>
+        <v>11.57600851620847</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>79.90689395729227</v>
+        <v>79.71410446847769</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.94752744381218</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,33 +1016,36 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>39.80808849215586</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>39.68008432924853</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.95943281560313</v>
+        <v>32.74528589455007</v>
       </c>
       <c r="C17">
-        <v>15.9963281133752</v>
+        <v>15.76310321310894</v>
       </c>
       <c r="D17">
-        <v>11.29442961624414</v>
+        <v>11.32297526808863</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>77.88221310106414</v>
+        <v>77.70686096105366</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.956713067214189</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,33 +1057,36 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>38.67197925728198</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>38.5509776993497</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.44170036085264</v>
+        <v>32.23094101023185</v>
       </c>
       <c r="C18">
-        <v>15.76281646824955</v>
+        <v>15.53066847573722</v>
       </c>
       <c r="D18">
-        <v>11.14732539450026</v>
+        <v>11.17824341398428</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>76.71814680965184</v>
+        <v>76.55273204397571</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.961932929349895</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,33 +1098,36 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>38.02212236086704</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>37.90493372921981</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.2662934275996</v>
+        <v>32.05666857477546</v>
       </c>
       <c r="C19">
-        <v>15.68367328842874</v>
+        <v>15.4518813830865</v>
       </c>
       <c r="D19">
-        <v>11.09763534737392</v>
+        <v>11.1293573525156</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>76.32394555194413</v>
+        <v>76.17021887249632</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.963690557367822</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,33 +1139,36 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>37.80256776758113</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>37.6866374738695</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>33.05521764218655</v>
+        <v>32.84043733722196</v>
       </c>
       <c r="C20">
-        <v>16.03951453502677</v>
+        <v>15.8060861241668</v>
       </c>
       <c r="D20">
-        <v>11.32171579460979</v>
+        <v>11.34982253800604</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>78.0976576437204</v>
+        <v>77.92046003091964</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.95574209755481</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,33 +1180,36 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>38.79251196836212</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>38.67078825542522</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.70969458223699</v>
+        <v>35.47637822386308</v>
       </c>
       <c r="C21">
-        <v>17.23400044282362</v>
+        <v>16.99437647010533</v>
       </c>
       <c r="D21">
-        <v>12.08610546281397</v>
+        <v>12.10198575772707</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>84.07565314120596</v>
+        <v>83.84605958709301</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.928178347228846</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,33 +1221,36 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>42.17400436407105</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>42.02985900146588</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.46417030707118</v>
+        <v>37.21728791036608</v>
       </c>
       <c r="C22">
-        <v>18.02023289502493</v>
+        <v>17.77587416626823</v>
       </c>
       <c r="D22">
-        <v>12.59925685466643</v>
+        <v>12.60688384426695</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>88.03054008111093</v>
+        <v>87.76435066407741</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.909261661560768</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,33 +1262,36 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>44.45846023433327</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>44.29633669917667</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.52468850831498</v>
+        <v>36.28522425652501</v>
       </c>
       <c r="C23">
-        <v>17.59961453680742</v>
+        <v>17.35785926322606</v>
       </c>
       <c r="D23">
-        <v>12.32374708825073</v>
+        <v>12.33581949725085</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>85.91273099035278</v>
+        <v>85.66638592401648</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.919460539325018</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,33 +1303,36 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>43.22979721186783</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>43.07766753987423</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>33.01191492783259</v>
+        <v>32.79742123026281</v>
       </c>
       <c r="C24">
-        <v>16.01999128713847</v>
+        <v>15.78665504635572</v>
       </c>
       <c r="D24">
-        <v>11.30937747012731</v>
+        <v>11.33768263989525</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>78.00025574260442</v>
+        <v>77.82389272671809</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.956181259915709</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,33 +1344,36 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>38.73800922995865</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>38.61661265415626</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.20972958939409</v>
+        <v>29.01899770908338</v>
       </c>
       <c r="C25">
-        <v>14.30268910869676</v>
+        <v>14.07640862601749</v>
       </c>
       <c r="D25">
-        <v>10.24483726279376</v>
+        <v>10.29067078110331</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.65741447182408</v>
+        <v>69.6032433852471</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.993441142757316</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,9 +1385,12 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>34.02235206675541</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>33.92600860375649</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_58/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.15124479609452</v>
+        <v>25.82560918240255</v>
       </c>
       <c r="C2">
-        <v>12.77520828646665</v>
+        <v>19.12859321480411</v>
       </c>
       <c r="D2">
-        <v>9.525480850866625</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>2.982764810694265</v>
       </c>
       <c r="F2">
-        <v>63.48332586384423</v>
+        <v>30.96222913320523</v>
       </c>
       <c r="G2">
-        <v>2.020009573387871</v>
+        <v>2.043378572999086</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -438,40 +441,34 @@
       <c r="I2">
         <v>0</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
       <c r="K2">
         <v>0</v>
       </c>
-      <c r="L2">
-        <v>30.44239222825462</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>10.93302481347355</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.13001453562503</v>
+        <v>23.97506736405809</v>
       </c>
       <c r="C3">
-        <v>11.85719135232022</v>
+        <v>17.77283301785675</v>
       </c>
       <c r="D3">
-        <v>9.004608538702072</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>3.113612820690151</v>
       </c>
       <c r="F3">
-        <v>59.23394387252571</v>
+        <v>29.32995827372422</v>
       </c>
       <c r="G3">
-        <v>2.037863753546712</v>
+        <v>2.054626028684102</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -479,40 +476,34 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
         <v>0</v>
       </c>
-      <c r="L3">
-        <v>28.01933932436801</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>11.24861171488628</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.84459474074055</v>
+        <v>22.78155841701178</v>
       </c>
       <c r="C4">
-        <v>11.27314209251023</v>
+        <v>16.89862946399131</v>
       </c>
       <c r="D4">
-        <v>8.682473572991082</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>3.194889314745466</v>
       </c>
       <c r="F4">
-        <v>56.56635127095411</v>
+        <v>28.33040990828211</v>
       </c>
       <c r="G4">
-        <v>2.048847911198937</v>
+        <v>2.061670981910674</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -520,40 +511,34 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4">
-        <v>26.49038437906716</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>11.44439492307045</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.30886917967247</v>
+        <v>22.28055705390684</v>
       </c>
       <c r="C5">
-        <v>11.02969535412258</v>
+        <v>16.53169311695381</v>
       </c>
       <c r="D5">
-        <v>8.550504876359671</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>3.228268749340022</v>
       </c>
       <c r="F5">
-        <v>55.46382260314304</v>
+        <v>27.92409375886221</v>
       </c>
       <c r="G5">
-        <v>2.053341412859556</v>
+        <v>2.064579871875859</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -561,40 +546,34 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
         <v>0</v>
       </c>
-      <c r="L5">
-        <v>25.85567718975755</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>11.52476711502284</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.21917349241473</v>
+        <v>22.19647558172382</v>
       </c>
       <c r="C6">
-        <v>10.98893415794452</v>
+        <v>16.47011257372986</v>
       </c>
       <c r="D6">
-        <v>8.528547158576105</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>3.233827693194947</v>
       </c>
       <c r="F6">
-        <v>55.27979960429346</v>
+        <v>27.856697794763</v>
       </c>
       <c r="G6">
-        <v>2.054088919596068</v>
+        <v>2.065065271681628</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -602,40 +581,34 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
         <v>0</v>
       </c>
-      <c r="L6">
-        <v>25.7495473484551</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>11.53815073346747</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.83741887448905</v>
+        <v>22.7748613003835</v>
       </c>
       <c r="C7">
-        <v>11.26988130334973</v>
+        <v>16.89372436305493</v>
       </c>
       <c r="D7">
-        <v>8.680696729245787</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>3.195338402994456</v>
       </c>
       <c r="F7">
-        <v>56.55154552495305</v>
+        <v>28.32492559201774</v>
       </c>
       <c r="G7">
-        <v>2.04890842733989</v>
+        <v>2.061710054427938</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -643,40 +616,34 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7">
-        <v>26.48187320315283</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>11.44547636079285</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.46304647399292</v>
+        <v>25.19928034150499</v>
       </c>
       <c r="C8">
-        <v>12.46270043019998</v>
+        <v>18.66967593842006</v>
       </c>
       <c r="D8">
-        <v>9.34628024216939</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>3.027700922851472</v>
       </c>
       <c r="F8">
-        <v>62.0296870992313</v>
+        <v>30.39903805002342</v>
       </c>
       <c r="G8">
-        <v>2.026169000489887</v>
+        <v>2.047229785245372</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -684,40 +651,34 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8">
-        <v>29.61462743111275</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>11.04147387055248</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.30120066118456</v>
+        <v>29.51088559758668</v>
       </c>
       <c r="C9">
-        <v>14.65744379278827</v>
+        <v>21.83030917358922</v>
       </c>
       <c r="D9">
-        <v>10.6414560944005</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>2.705413457930657</v>
       </c>
       <c r="F9">
-        <v>72.36639517228417</v>
+        <v>34.47841926152897</v>
       </c>
       <c r="G9">
-        <v>1.981086915427011</v>
+        <v>2.019782537104301</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -725,40 +686,34 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9">
-        <v>35.50361168722112</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>10.26104295011731</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.74100559347769</v>
+        <v>32.42693075288708</v>
       </c>
       <c r="C10">
-        <v>16.21262496544387</v>
+        <v>23.97054761811912</v>
       </c>
       <c r="D10">
-        <v>11.60500770249365</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>2.47152936751672</v>
       </c>
       <c r="F10">
-        <v>79.94331579709885</v>
+        <v>37.47956975598629</v>
       </c>
       <c r="G10">
-        <v>1.94646974484561</v>
+        <v>1.999952548523672</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -766,40 +721,34 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10">
-        <v>39.80949623397512</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>9.688416029121754</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>35.30489930516711</v>
+        <v>33.70349574171748</v>
       </c>
       <c r="C11">
-        <v>16.9172380179228</v>
+        <v>24.90837478753976</v>
       </c>
       <c r="D11">
-        <v>12.05258548351782</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>2.365718109535561</v>
       </c>
       <c r="F11">
-        <v>83.46021563565785</v>
+        <v>38.96906600056472</v>
       </c>
       <c r="G11">
-        <v>1.930010788798685</v>
+        <v>1.990940860821216</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -807,40 +756,34 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11">
-        <v>41.8088202574049</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>9.426430353277475</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>35.89985450537553</v>
+        <v>34.1801557245664</v>
       </c>
       <c r="C12">
-        <v>17.18475875355901</v>
+        <v>25.25871166879367</v>
       </c>
       <c r="D12">
-        <v>12.22424449425741</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>2.325755431284767</v>
       </c>
       <c r="F12">
-        <v>84.79904308942962</v>
+        <v>39.53494976502046</v>
       </c>
       <c r="G12">
-        <v>1.923629420982862</v>
+        <v>1.987523493922401</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -848,40 +791,34 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
       <c r="K12">
         <v>0</v>
       </c>
-      <c r="L12">
-        <v>42.57735813727955</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>9.326851508367008</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.77154133104623</v>
+        <v>34.07779098644382</v>
       </c>
       <c r="C13">
-        <v>17.12709073822636</v>
+        <v>25.18346771054941</v>
       </c>
       <c r="D13">
-        <v>12.18716111557706</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>2.334356739452057</v>
       </c>
       <c r="F13">
-        <v>84.51027326741924</v>
+        <v>39.41313970541644</v>
       </c>
       <c r="G13">
-        <v>1.925011298247588</v>
+        <v>1.988259807675261</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -889,40 +826,34 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
         <v>0</v>
       </c>
-      <c r="L13">
-        <v>42.41121743731824</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>9.348316761176532</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>35.35377154481353</v>
+        <v>33.74284336702867</v>
       </c>
       <c r="C14">
-        <v>16.9392254740846</v>
+        <v>24.93729121620292</v>
       </c>
       <c r="D14">
-        <v>12.06665847126996</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>2.362428007409224</v>
       </c>
       <c r="F14">
-        <v>83.57017956525654</v>
+        <v>39.01565092664418</v>
       </c>
       <c r="G14">
-        <v>1.929489095785378</v>
+        <v>1.990659847322705</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -930,40 +861,34 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
         <v>0</v>
       </c>
-      <c r="L14">
-        <v>41.87177904427351</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>9.418246328683784</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>35.09833510463428</v>
+        <v>33.5368135000858</v>
       </c>
       <c r="C15">
-        <v>16.82428251612851</v>
+        <v>24.78588726806295</v>
       </c>
       <c r="D15">
-        <v>11.993160332234</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+        <v>2.379637377468084</v>
       </c>
       <c r="F15">
-        <v>82.9954715720704</v>
+        <v>38.77198249359282</v>
       </c>
       <c r="G15">
-        <v>1.932210851313437</v>
+        <v>1.992129113456803</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -971,40 +896,34 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="L15">
-        <v>41.54305060302409</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>9.461027003222021</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>33.6390072857856</v>
+        <v>32.34253496668249</v>
       </c>
       <c r="C16">
-        <v>16.166606739268</v>
+        <v>23.90856708344916</v>
       </c>
       <c r="D16">
-        <v>11.57600851620847</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>2.478457381933106</v>
       </c>
       <c r="F16">
-        <v>79.71410446847769</v>
+        <v>37.39024125237053</v>
       </c>
       <c r="G16">
-        <v>1.94752744381218</v>
+        <v>2.000541161073952</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1012,40 +931,34 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16">
-        <v>39.68008432924853</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>9.70549445864876</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.74528589455007</v>
+        <v>31.59738137831339</v>
       </c>
       <c r="C17">
-        <v>15.76310321310894</v>
+        <v>23.3614287817939</v>
       </c>
       <c r="D17">
-        <v>11.32297526808863</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+        <v>2.539237269830481</v>
       </c>
       <c r="F17">
-        <v>77.70686096105366</v>
+        <v>36.60774640818414</v>
       </c>
       <c r="G17">
-        <v>1.956713067214189</v>
+        <v>2.005699904696812</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1053,40 +966,34 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17">
-        <v>38.5509776993497</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>9.854979616134306</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>32.23094101023185</v>
+        <v>31.164057196345</v>
       </c>
       <c r="C18">
-        <v>15.53066847573722</v>
+        <v>23.04333846519611</v>
       </c>
       <c r="D18">
-        <v>11.17824341398428</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+        <v>2.574248687669225</v>
       </c>
       <c r="F18">
-        <v>76.55273204397571</v>
+        <v>36.15792318404672</v>
       </c>
       <c r="G18">
-        <v>1.961932929349895</v>
+        <v>2.008668347097181</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1094,40 +1001,34 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
         <v>0</v>
       </c>
-      <c r="L18">
-        <v>37.90493372921981</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>9.940829199760838</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>32.05666857477546</v>
+        <v>31.01651603000702</v>
       </c>
       <c r="C19">
-        <v>15.4518813830865</v>
+        <v>22.93504632835021</v>
       </c>
       <c r="D19">
-        <v>11.1293573525156</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+        <v>2.58611171306865</v>
       </c>
       <c r="F19">
-        <v>76.17021887249632</v>
+        <v>36.00565511166872</v>
       </c>
       <c r="G19">
-        <v>1.963690557367822</v>
+        <v>2.009673801786575</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1135,40 +1036,34 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="L19">
-        <v>37.6866374738695</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>9.96987844681602</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.84043733722196</v>
+        <v>31.67719096426027</v>
       </c>
       <c r="C20">
-        <v>15.8060861241668</v>
+        <v>23.42002115841571</v>
       </c>
       <c r="D20">
-        <v>11.34982253800604</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+        <v>2.532761647919207</v>
       </c>
       <c r="F20">
-        <v>77.92046003091964</v>
+        <v>36.69101671391811</v>
       </c>
       <c r="G20">
-        <v>1.95574209755481</v>
+        <v>2.005150657934883</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1176,40 +1071,34 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20">
-        <v>38.67078825542522</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>9.83908122101071</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>35.47637822386308</v>
+        <v>33.84140495840571</v>
       </c>
       <c r="C21">
-        <v>16.99437647010533</v>
+        <v>25.00972643542002</v>
       </c>
       <c r="D21">
-        <v>12.10198575772707</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+        <v>2.354179606386477</v>
       </c>
       <c r="F21">
-        <v>83.84605958709301</v>
+        <v>39.13244260917239</v>
       </c>
       <c r="G21">
-        <v>1.928178347228846</v>
+        <v>1.989955082203522</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1217,40 +1106,34 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
         <v>0</v>
       </c>
-      <c r="L21">
-        <v>42.02985900146588</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>9.397717712864672</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.21728791036608</v>
+        <v>35.21676117730088</v>
       </c>
       <c r="C22">
-        <v>17.77587416626823</v>
+        <v>26.02092153627651</v>
       </c>
       <c r="D22">
-        <v>12.60688384426695</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>2.238116716251617</v>
       </c>
       <c r="F22">
-        <v>87.76435066407741</v>
+        <v>40.77711033961584</v>
       </c>
       <c r="G22">
-        <v>1.909261661560768</v>
+        <v>1.979992167931744</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1258,40 +1141,34 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
         <v>0</v>
       </c>
-      <c r="L22">
-        <v>44.29633669917667</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>9.107014552203333</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>36.28522425652501</v>
+        <v>34.4861237727124</v>
       </c>
       <c r="C23">
-        <v>17.35785926322606</v>
+        <v>25.48364119505421</v>
       </c>
       <c r="D23">
-        <v>12.33581949725085</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+        <v>2.299986486628103</v>
       </c>
       <c r="F23">
-        <v>85.66638592401648</v>
+        <v>39.89995989461127</v>
       </c>
       <c r="G23">
-        <v>1.919460539325018</v>
+        <v>1.985314740162822</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1299,40 +1176,34 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
         <v>0</v>
       </c>
-      <c r="L23">
-        <v>43.07766753987423</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>9.262430477027069</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.79742123026281</v>
+        <v>31.64112442434247</v>
       </c>
       <c r="C24">
-        <v>15.78665504635572</v>
+        <v>23.39354257567374</v>
       </c>
       <c r="D24">
-        <v>11.33768263989525</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>2.535689065214271</v>
       </c>
       <c r="F24">
-        <v>77.82389272671809</v>
+        <v>36.65337009754583</v>
       </c>
       <c r="G24">
-        <v>1.956181259915709</v>
+        <v>2.005398963808952</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1340,40 +1211,34 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
         <v>0</v>
       </c>
-      <c r="L24">
-        <v>38.61661265415626</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>9.846269158733412</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.01899770908338</v>
+        <v>28.39011279973351</v>
       </c>
       <c r="C25">
-        <v>14.07640862601749</v>
+        <v>21.00834757076413</v>
       </c>
       <c r="D25">
-        <v>10.29067078110331</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
+        <v>2.792038024768901</v>
       </c>
       <c r="F25">
-        <v>69.6032433852471</v>
+        <v>33.37435385270623</v>
       </c>
       <c r="G25">
-        <v>1.993441142757316</v>
+        <v>2.027129496218696</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1381,16 +1246,13 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
         <v>0</v>
       </c>
-      <c r="L25">
-        <v>33.92600860375649</v>
-      </c>
-      <c r="M25">
+      <c r="N25">
+        <v>10.4715288225295</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_58/res_line/loading_percent.xlsx
@@ -421,31 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.82560918240255</v>
+        <v>10.58921159641845</v>
       </c>
       <c r="C2">
-        <v>19.12859321480411</v>
+        <v>6.632604923943609</v>
       </c>
       <c r="D2">
-        <v>2.982764810694265</v>
+        <v>4.386981725228266</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>30.96222913320523</v>
+        <v>23.56443265423337</v>
       </c>
       <c r="G2">
-        <v>2.043378572999086</v>
+        <v>32.49304505690466</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>10.78414455320592</v>
       </c>
       <c r="I2">
+        <v>17.02635207249758</v>
+      </c>
+      <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.04174948810351</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>29.7126265156338</v>
       </c>
       <c r="N2">
-        <v>10.93302481347355</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -456,31 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.97506736405809</v>
+        <v>9.980530393737579</v>
       </c>
       <c r="C3">
-        <v>17.77283301785675</v>
+        <v>6.285363554405055</v>
       </c>
       <c r="D3">
-        <v>3.113612820690151</v>
+        <v>4.355839307218233</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>29.32995827372422</v>
+        <v>22.86979400194395</v>
       </c>
       <c r="G3">
-        <v>2.054626028684102</v>
+        <v>31.42335784427689</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>10.71324377556987</v>
       </c>
       <c r="I3">
+        <v>16.88995942455937</v>
+      </c>
+      <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>9.55074462621066</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>27.42156309110002</v>
       </c>
       <c r="N3">
-        <v>11.24861171488628</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -491,31 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.78155841701178</v>
+        <v>9.5862686833089</v>
       </c>
       <c r="C4">
-        <v>16.89862946399131</v>
+        <v>6.061779957432246</v>
       </c>
       <c r="D4">
-        <v>3.194889314745466</v>
+        <v>4.335462763036409</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>28.33040990828211</v>
+        <v>22.45438557558175</v>
       </c>
       <c r="G4">
-        <v>2.061670981910674</v>
+        <v>30.782795393478</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>10.67686362983925</v>
       </c>
       <c r="I4">
+        <v>16.81919356737674</v>
+      </c>
+      <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.234733854102156</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>25.96593549167133</v>
       </c>
       <c r="N4">
-        <v>11.44439492307045</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -526,31 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.28055705390684</v>
+        <v>9.420485633868283</v>
       </c>
       <c r="C5">
-        <v>16.53169311695381</v>
+        <v>5.968099122943034</v>
       </c>
       <c r="D5">
-        <v>3.228268749340022</v>
+        <v>4.326867805291871</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>27.92409375886221</v>
+        <v>22.28799228009794</v>
       </c>
       <c r="G5">
-        <v>2.064579871875859</v>
+        <v>30.52598454265213</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>10.66377000924397</v>
       </c>
       <c r="I5">
+        <v>16.79348405110765</v>
+      </c>
+      <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.102377509001929</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>25.35959271446144</v>
       </c>
       <c r="N5">
-        <v>11.52476711502284</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -561,31 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.19647558172382</v>
+        <v>9.392649855006734</v>
       </c>
       <c r="C6">
-        <v>16.47011257372986</v>
+        <v>5.952389696737256</v>
       </c>
       <c r="D6">
-        <v>3.233827693194947</v>
+        <v>4.325423682621391</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>27.856697794763</v>
+        <v>22.26054026402727</v>
       </c>
       <c r="G6">
-        <v>2.065065271681628</v>
+        <v>30.48360087418338</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>10.66169845613867</v>
       </c>
       <c r="I6">
+        <v>16.78939999444449</v>
+      </c>
+      <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.080186079550614</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>25.25809180306599</v>
       </c>
       <c r="N6">
-        <v>11.53815073346747</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -596,31 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.7748613003835</v>
+        <v>9.584053532802006</v>
       </c>
       <c r="C7">
-        <v>16.89372436305493</v>
+        <v>6.060526886008125</v>
       </c>
       <c r="D7">
-        <v>3.195338402994456</v>
+        <v>4.335347997946001</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>28.32492559201774</v>
+        <v>22.45212970595954</v>
       </c>
       <c r="G7">
-        <v>2.061710054427938</v>
+        <v>30.77931465035089</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>10.67668012177717</v>
       </c>
       <c r="I7">
+        <v>16.8188343524036</v>
+      </c>
+      <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.232963235320748</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>25.95781249772868</v>
       </c>
       <c r="N7">
-        <v>11.44547636079285</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -631,31 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.19928034150499</v>
+        <v>10.38362245116235</v>
       </c>
       <c r="C8">
-        <v>18.66967593842006</v>
+        <v>6.515051430084341</v>
       </c>
       <c r="D8">
-        <v>3.027700922851472</v>
+        <v>4.376519726625473</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>30.39903805002342</v>
+        <v>23.32267200002361</v>
       </c>
       <c r="G8">
-        <v>2.047229785245372</v>
+        <v>32.12092679790184</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>10.75817262208403</v>
       </c>
       <c r="I8">
+        <v>16.97654768472174</v>
+      </c>
+      <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>9.875508375379141</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>28.9322589489752</v>
       </c>
       <c r="N8">
-        <v>11.04147387055248</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -666,31 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.51088559758668</v>
+        <v>11.78718779334891</v>
       </c>
       <c r="C9">
-        <v>21.83030917358922</v>
+        <v>7.322632287120855</v>
       </c>
       <c r="D9">
-        <v>2.705413457930657</v>
+        <v>4.446038173819654</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>34.47841926152897</v>
+        <v>25.11445567252497</v>
       </c>
       <c r="G9">
-        <v>2.019782537104301</v>
+        <v>34.87602711300117</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>10.97782153647788</v>
       </c>
       <c r="I9">
+        <v>17.39505047766286</v>
+      </c>
+      <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.01747049152259</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>34.42377414753643</v>
       </c>
       <c r="N9">
-        <v>10.26104295011731</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -701,31 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.42693075288708</v>
+        <v>12.71647483637071</v>
       </c>
       <c r="C10">
-        <v>23.97054761811912</v>
+        <v>7.863344652536551</v>
       </c>
       <c r="D10">
-        <v>2.47152936751672</v>
+        <v>4.488138921655863</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>37.47956975598629</v>
+        <v>26.47996655140051</v>
       </c>
       <c r="G10">
-        <v>1.999952548523672</v>
+        <v>36.97377914438385</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>11.18013703565798</v>
       </c>
       <c r="I10">
+        <v>17.77816843998344</v>
+      </c>
+      <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>11.78123600004513</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>38.33178455945741</v>
       </c>
       <c r="N10">
-        <v>9.688416029121754</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -736,31 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.70349574171748</v>
+        <v>13.11673015519169</v>
       </c>
       <c r="C11">
-        <v>24.90837478753976</v>
+        <v>8.097599052793262</v>
       </c>
       <c r="D11">
-        <v>2.365718109535561</v>
+        <v>4.504704156022854</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>38.96906600056472</v>
+        <v>27.11214943031071</v>
       </c>
       <c r="G11">
-        <v>1.990940860821216</v>
+        <v>37.94521508847527</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>11.28213130471075</v>
       </c>
       <c r="I11">
+        <v>17.97107903684716</v>
+      </c>
+      <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>12.11169597066437</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>40.10715740883945</v>
       </c>
       <c r="N11">
-        <v>9.426430353277475</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -771,31 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.1801557245664</v>
+        <v>13.26502096234637</v>
       </c>
       <c r="C12">
-        <v>25.25871166879367</v>
+        <v>8.18458951347931</v>
       </c>
       <c r="D12">
-        <v>2.325755431284767</v>
+        <v>4.510532420070513</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>39.53494976502046</v>
+        <v>27.35323019153283</v>
       </c>
       <c r="G12">
-        <v>1.987523493922401</v>
+        <v>38.31578345850612</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>11.32228608146822</v>
       </c>
       <c r="I12">
+        <v>18.0470178816703</v>
+      </c>
+      <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>12.23432722116017</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>40.78196877418014</v>
       </c>
       <c r="N12">
-        <v>9.326851508367008</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -806,31 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.07779098644382</v>
+        <v>13.23323051552999</v>
       </c>
       <c r="C13">
-        <v>25.18346771054941</v>
+        <v>8.165931503314336</v>
       </c>
       <c r="D13">
-        <v>2.334356739452057</v>
+        <v>4.509298367239763</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>39.41313970541644</v>
+        <v>27.30123153799701</v>
       </c>
       <c r="G13">
-        <v>1.988259807675261</v>
+        <v>38.23584905932641</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>11.31356816798269</v>
       </c>
       <c r="I13">
+        <v>18.03053095919595</v>
+      </c>
+      <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.20802906343211</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>40.63646904230152</v>
       </c>
       <c r="N13">
-        <v>9.348316761176532</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -841,31 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.74284336702867</v>
+        <v>13.12899611878088</v>
       </c>
       <c r="C14">
-        <v>24.93729121620292</v>
+        <v>8.104790424448014</v>
       </c>
       <c r="D14">
-        <v>2.362428007409224</v>
+        <v>4.5051930554493</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>39.01565092664418</v>
+        <v>27.131948584263</v>
       </c>
       <c r="G14">
-        <v>1.990659847322705</v>
+        <v>37.97564580169467</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>11.28540354310587</v>
       </c>
       <c r="I14">
+        <v>17.97726737713473</v>
+      </c>
+      <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.12183557833682</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>40.16260459352591</v>
       </c>
       <c r="N14">
-        <v>9.418246328683784</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -876,31 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.5368135000858</v>
+        <v>13.06472117730476</v>
       </c>
       <c r="C15">
-        <v>24.78588726806295</v>
+        <v>8.067115120167562</v>
       </c>
       <c r="D15">
-        <v>2.379637377468084</v>
+        <v>4.502618008522986</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>38.77198249359282</v>
+        <v>27.02848208333126</v>
       </c>
       <c r="G15">
-        <v>1.992129113456803</v>
+        <v>37.81662600053245</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>11.26835456897314</v>
       </c>
       <c r="I15">
+        <v>17.94502474530666</v>
+      </c>
+      <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>12.0687109671032</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>39.87277630564321</v>
       </c>
       <c r="N15">
-        <v>9.461027003222021</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -911,31 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.34253496668249</v>
+        <v>12.68986134765375</v>
       </c>
       <c r="C16">
-        <v>23.90856708344916</v>
+        <v>7.847797250070745</v>
       </c>
       <c r="D16">
-        <v>2.478457381933106</v>
+        <v>4.48699854253767</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>37.39024125237053</v>
+        <v>26.43888045371141</v>
       </c>
       <c r="G16">
-        <v>2.000541161073952</v>
+        <v>36.91065589411179</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>11.17368009780199</v>
       </c>
       <c r="I16">
+        <v>17.7659532794683</v>
+      </c>
+      <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>11.7592926933228</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>38.21593737982803</v>
       </c>
       <c r="N16">
-        <v>9.70549445864876</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -946,31 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.59738137831339</v>
+        <v>12.4541114233929</v>
       </c>
       <c r="C17">
-        <v>23.3614287817939</v>
+        <v>7.710231233062721</v>
       </c>
       <c r="D17">
-        <v>2.539237269830481</v>
+        <v>4.476708401353177</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>36.60774640818414</v>
+        <v>26.08004733915935</v>
       </c>
       <c r="G17">
-        <v>2.005699904696812</v>
+        <v>36.3593925322504</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>11.1182181892837</v>
       </c>
       <c r="I17">
+        <v>17.66100911361627</v>
+      </c>
+      <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>11.56508275853146</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>37.20069341041919</v>
       </c>
       <c r="N17">
-        <v>9.854979616134306</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -981,31 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.164057196345</v>
+        <v>12.3164014072397</v>
       </c>
       <c r="C18">
-        <v>23.04333846519611</v>
+        <v>7.63000605788233</v>
       </c>
       <c r="D18">
-        <v>2.574248687669225</v>
+        <v>4.470551644593133</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>36.15792318404672</v>
+        <v>25.8746814881915</v>
       </c>
       <c r="G18">
-        <v>2.008668347097181</v>
+        <v>36.0439134932432</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>11.08724885257547</v>
       </c>
       <c r="I18">
+        <v>17.60238737980958</v>
+      </c>
+      <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>11.45178435754744</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>36.61631490322423</v>
       </c>
       <c r="N18">
-        <v>9.940829199760838</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1016,31 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.01651603000702</v>
+        <v>12.26941340209197</v>
       </c>
       <c r="C19">
-        <v>22.93504632835021</v>
+        <v>7.602654967181841</v>
       </c>
       <c r="D19">
-        <v>2.58611171306865</v>
+        <v>4.468428068022182</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>36.00565511166872</v>
+        <v>25.80532236328698</v>
       </c>
       <c r="G19">
-        <v>2.009673801786575</v>
+        <v>35.9373663699506</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>11.076920223236</v>
       </c>
       <c r="I19">
+        <v>17.58283193513465</v>
+      </c>
+      <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>11.41315148895904</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>36.4183050760707</v>
       </c>
       <c r="N19">
-        <v>9.96987844681602</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1051,31 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.67719096426027</v>
+        <v>12.47942635770132</v>
       </c>
       <c r="C20">
-        <v>23.42002115841571</v>
+        <v>7.724989507443798</v>
       </c>
       <c r="D20">
-        <v>2.532761647919207</v>
+        <v>4.477828913148238</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>36.69101671391811</v>
+        <v>26.11813910513542</v>
       </c>
       <c r="G20">
-        <v>2.005150657934883</v>
+        <v>36.41790931684615</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>11.12402518203843</v>
       </c>
       <c r="I20">
+        <v>17.67199916701696</v>
+      </c>
+      <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>11.58592214004802</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>37.30879498027655</v>
       </c>
       <c r="N20">
-        <v>9.83908122101071</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1086,31 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.84140495840571</v>
+        <v>13.15970166107295</v>
       </c>
       <c r="C21">
-        <v>25.00972643542002</v>
+        <v>8.122795922921972</v>
       </c>
       <c r="D21">
-        <v>2.354179606386477</v>
+        <v>4.506411639173353</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>39.13244260917239</v>
+        <v>27.18162405972141</v>
       </c>
       <c r="G21">
-        <v>1.989955082203522</v>
+        <v>38.0519976690844</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>11.29363374115432</v>
       </c>
       <c r="I21">
+        <v>17.99283197360121</v>
+      </c>
+      <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>12.14722131387069</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>40.30169460475537</v>
       </c>
       <c r="N21">
-        <v>9.397717712864672</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1121,31 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.21676117730088</v>
+        <v>13.58516489237319</v>
       </c>
       <c r="C22">
-        <v>26.02092153627651</v>
+        <v>8.372757584127783</v>
       </c>
       <c r="D22">
-        <v>2.238116716251617</v>
+        <v>4.522449158288024</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>40.77711033961584</v>
+        <v>27.88661988548811</v>
       </c>
       <c r="G22">
-        <v>1.979992167931744</v>
+        <v>39.13597840613567</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>11.41346859150659</v>
       </c>
       <c r="I22">
+        <v>18.21947157656875</v>
+      </c>
+      <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>12.49940907556078</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>42.2744326344269</v>
       </c>
       <c r="N22">
-        <v>9.107014552203333</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1156,31 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.4861237727124</v>
+        <v>13.35985736024245</v>
       </c>
       <c r="C23">
-        <v>25.48364119505421</v>
+        <v>8.240278870626051</v>
       </c>
       <c r="D23">
-        <v>2.299986486628103</v>
+        <v>4.514161619274149</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>39.89995989461127</v>
+        <v>27.50938228988202</v>
       </c>
       <c r="G23">
-        <v>1.985314740162822</v>
+        <v>38.55585047487799</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>11.34865139745075</v>
       </c>
       <c r="I23">
+        <v>18.09687950226077</v>
+      </c>
+      <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>12.31280626657143</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>41.21882250281237</v>
       </c>
       <c r="N23">
-        <v>9.262430477027069</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1191,31 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.64112442434247</v>
+        <v>12.46798824509099</v>
       </c>
       <c r="C24">
-        <v>23.39354257567374</v>
+        <v>7.718320829737116</v>
       </c>
       <c r="D24">
-        <v>2.535689065214271</v>
+        <v>4.477323074683638</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>36.65337009754583</v>
+        <v>26.10091492115069</v>
       </c>
       <c r="G24">
-        <v>2.005398963808952</v>
+        <v>36.39144937916286</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>11.12139699338806</v>
       </c>
       <c r="I24">
+        <v>17.66702524648299</v>
+      </c>
+      <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>11.57650577330495</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>37.25992464807481</v>
       </c>
       <c r="N24">
-        <v>9.846269158733412</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1226,31 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.39011279973351</v>
+        <v>11.42526870928017</v>
       </c>
       <c r="C25">
-        <v>21.00834757076413</v>
+        <v>7.113299157390278</v>
       </c>
       <c r="D25">
-        <v>2.792038024768901</v>
+        <v>4.428627898488242</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>33.37435385270623</v>
+        <v>24.62104941864946</v>
       </c>
       <c r="G25">
-        <v>2.027129496218696</v>
+        <v>34.1178526478453</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>10.91154807339435</v>
       </c>
       <c r="I25">
+        <v>17.26923793082676</v>
+      </c>
+      <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>10.72153244025298</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>32.96736268518459</v>
       </c>
       <c r="N25">
-        <v>10.4715288225295</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_58/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.58921159641845</v>
+        <v>7.197104432957967</v>
       </c>
       <c r="C2">
-        <v>6.632604923943609</v>
+        <v>4.46485883537922</v>
       </c>
       <c r="D2">
-        <v>4.386981725228266</v>
+        <v>5.176866307448251</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.56443265423337</v>
+        <v>27.10163829750831</v>
       </c>
       <c r="G2">
-        <v>32.49304505690466</v>
+        <v>33.87476623968679</v>
       </c>
       <c r="H2">
-        <v>10.78414455320592</v>
+        <v>15.34958577672841</v>
       </c>
       <c r="I2">
-        <v>17.02635207249758</v>
+        <v>22.59092971433252</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.04174948810351</v>
+        <v>7.493077718613511</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.7126265156338</v>
+        <v>19.97696696572945</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.980530393737579</v>
+        <v>6.985711345888937</v>
       </c>
       <c r="C3">
-        <v>6.285363554405055</v>
+        <v>4.292404538252832</v>
       </c>
       <c r="D3">
-        <v>4.355839307218233</v>
+        <v>5.155094932509346</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>22.86979400194395</v>
+        <v>27.0149316256284</v>
       </c>
       <c r="G3">
-        <v>31.42335784427689</v>
+        <v>33.69133336912326</v>
       </c>
       <c r="H3">
-        <v>10.71324377556987</v>
+        <v>15.36885259539231</v>
       </c>
       <c r="I3">
-        <v>16.88995942455937</v>
+        <v>22.61230207878932</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.55074462621066</v>
+        <v>7.363290461200854</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.42156309110002</v>
+        <v>19.38610794789741</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.5862686833089</v>
+        <v>6.854309205985398</v>
       </c>
       <c r="C4">
-        <v>6.061779957432246</v>
+        <v>4.181756748038818</v>
       </c>
       <c r="D4">
-        <v>4.335462763036409</v>
+        <v>5.141252052318277</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22.45438557558175</v>
+        <v>26.96837216141881</v>
       </c>
       <c r="G4">
-        <v>30.782795393478</v>
+        <v>33.58801092124315</v>
       </c>
       <c r="H4">
-        <v>10.67686362983925</v>
+        <v>15.38323650227154</v>
       </c>
       <c r="I4">
-        <v>16.81919356737674</v>
+        <v>22.62973177519134</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.234733854102156</v>
+        <v>7.284192867791535</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>25.96593549167133</v>
+        <v>19.02231616688643</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.420485633868283</v>
+        <v>6.800451048557073</v>
       </c>
       <c r="C5">
-        <v>5.968099122943034</v>
+        <v>4.135503674997983</v>
       </c>
       <c r="D5">
-        <v>4.326867805291871</v>
+        <v>5.135492694787291</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>22.28799228009794</v>
+        <v>26.9510885198841</v>
       </c>
       <c r="G5">
-        <v>30.52598454265213</v>
+        <v>33.54827464489092</v>
       </c>
       <c r="H5">
-        <v>10.66377000924397</v>
+        <v>15.38973922278377</v>
       </c>
       <c r="I5">
-        <v>16.79348405110765</v>
+        <v>22.63791477924383</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.102377509001929</v>
+        <v>7.252155661876677</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.35959271446144</v>
+        <v>18.87406365757266</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.392649855006734</v>
+        <v>6.791492008661015</v>
       </c>
       <c r="C6">
-        <v>5.952389696737256</v>
+        <v>4.127754210531358</v>
       </c>
       <c r="D6">
-        <v>4.325423682621391</v>
+        <v>5.134529250376517</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>22.26054026402727</v>
+        <v>26.94832089943381</v>
       </c>
       <c r="G6">
-        <v>30.48360087418338</v>
+        <v>33.54182026475845</v>
       </c>
       <c r="H6">
-        <v>10.66169845613867</v>
+        <v>15.39085768552462</v>
       </c>
       <c r="I6">
-        <v>16.78939999444449</v>
+        <v>22.63933871867124</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.080186079550614</v>
+        <v>7.24684910083228</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.25809180306599</v>
+        <v>18.8494536277925</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.584053532802006</v>
+        <v>6.853583986876178</v>
       </c>
       <c r="C7">
-        <v>6.060526886008125</v>
+        <v>4.181137624699352</v>
       </c>
       <c r="D7">
-        <v>4.335347997946001</v>
+        <v>5.141174856872444</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>22.45212970595954</v>
+        <v>26.96813221446597</v>
       </c>
       <c r="G7">
-        <v>30.77931465035089</v>
+        <v>33.58746539958569</v>
       </c>
       <c r="H7">
-        <v>10.67668012177717</v>
+        <v>15.38332160567415</v>
       </c>
       <c r="I7">
-        <v>16.8188343524036</v>
+        <v>22.62983776396961</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.232963235320748</v>
+        <v>7.283759948397756</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>25.95781249772868</v>
+        <v>19.02031646411048</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.38362245116235</v>
+        <v>7.124603458397402</v>
       </c>
       <c r="C8">
-        <v>6.515051430084341</v>
+        <v>4.406403437414089</v>
       </c>
       <c r="D8">
-        <v>4.376519726625473</v>
+        <v>5.169458877885956</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>23.32267200002361</v>
+        <v>27.07036243387794</v>
       </c>
       <c r="G8">
-        <v>32.12092679790184</v>
+        <v>33.80960535134113</v>
       </c>
       <c r="H8">
-        <v>10.75817262208403</v>
+        <v>15.35569828860355</v>
       </c>
       <c r="I8">
-        <v>16.97654768472174</v>
+        <v>22.5974034228609</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.875508375379141</v>
+        <v>7.448232073658547</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>28.9322589489752</v>
+        <v>19.77359157351269</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.78718779334891</v>
+        <v>7.639543133442873</v>
       </c>
       <c r="C9">
-        <v>7.322632287120855</v>
+        <v>4.809117406121309</v>
       </c>
       <c r="D9">
-        <v>4.446038173819654</v>
+        <v>5.221102107091446</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>25.11445567252497</v>
+        <v>27.32328605414124</v>
       </c>
       <c r="G9">
-        <v>34.87602711300117</v>
+        <v>34.31762699956496</v>
       </c>
       <c r="H9">
-        <v>10.97782153647788</v>
+        <v>15.3218376207024</v>
       </c>
       <c r="I9">
-        <v>17.39505047766286</v>
+        <v>22.56808564390244</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.01747049152259</v>
+        <v>7.773433052663369</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.42377414753643</v>
+        <v>21.23258364199129</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.71647483637071</v>
+        <v>8.003171866988232</v>
       </c>
       <c r="C10">
-        <v>7.863344652536551</v>
+        <v>5.079784655031846</v>
       </c>
       <c r="D10">
-        <v>4.488138921655863</v>
+        <v>5.256648362555091</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>26.47996655140051</v>
+        <v>27.54022899827629</v>
       </c>
       <c r="G10">
-        <v>36.97377914438385</v>
+        <v>34.7328364922998</v>
       </c>
       <c r="H10">
-        <v>11.18013703565798</v>
+        <v>15.30939493708051</v>
       </c>
       <c r="I10">
-        <v>17.77816843998344</v>
+        <v>22.5675832831748</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.78123600004513</v>
+        <v>8.056749574135678</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>38.33178455945741</v>
+        <v>22.28077389036368</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.11673015519169</v>
+        <v>8.164558602311233</v>
       </c>
       <c r="C11">
-        <v>8.097599052793262</v>
+        <v>5.197215263212902</v>
       </c>
       <c r="D11">
-        <v>4.504704156022854</v>
+        <v>5.272285356577234</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>27.11214943031071</v>
+        <v>27.64545711226965</v>
       </c>
       <c r="G11">
-        <v>37.94521508847527</v>
+        <v>34.93030350819038</v>
       </c>
       <c r="H11">
-        <v>11.28213130471075</v>
+        <v>15.30644331715996</v>
       </c>
       <c r="I11">
-        <v>17.97107903684716</v>
+        <v>22.57194459722898</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.11169597066437</v>
+        <v>8.222713787200737</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.10715740883945</v>
+        <v>22.75011847002204</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.26502096234637</v>
+        <v>8.225030390514073</v>
       </c>
       <c r="C12">
-        <v>8.18458951347931</v>
+        <v>5.240848490193974</v>
       </c>
       <c r="D12">
-        <v>4.510532420070513</v>
+        <v>5.278128849427157</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>27.35323019153283</v>
+        <v>27.68622300551603</v>
       </c>
       <c r="G12">
-        <v>38.31578345850612</v>
+        <v>35.00626413875828</v>
       </c>
       <c r="H12">
-        <v>11.32228608146822</v>
+        <v>15.30571553319001</v>
       </c>
       <c r="I12">
-        <v>18.0470178816703</v>
+        <v>22.57425718463186</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.23432722116017</v>
+        <v>8.284446950136532</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>40.78196877418014</v>
+        <v>22.92659797367991</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.23323051552999</v>
+        <v>8.212036183194444</v>
       </c>
       <c r="C13">
-        <v>8.165931503314336</v>
+        <v>5.231488666703109</v>
       </c>
       <c r="D13">
-        <v>4.509298367239763</v>
+        <v>5.276873832517097</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>27.30123153799701</v>
+        <v>27.6774028696845</v>
       </c>
       <c r="G13">
-        <v>38.23584905932641</v>
+        <v>34.98985282397516</v>
       </c>
       <c r="H13">
-        <v>11.31356816798269</v>
+        <v>15.30585492699885</v>
       </c>
       <c r="I13">
-        <v>18.03053095919595</v>
+        <v>22.57372971476891</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.20802906343211</v>
+        <v>8.2712015295547</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>40.63646904230152</v>
+        <v>22.88864820711136</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.12899611878088</v>
+        <v>8.169546851824519</v>
       </c>
       <c r="C14">
-        <v>8.104790424448014</v>
+        <v>5.20082181595845</v>
       </c>
       <c r="D14">
-        <v>4.5051930554493</v>
+        <v>5.272767672392406</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>27.131948584263</v>
+        <v>27.64879267556786</v>
       </c>
       <c r="G14">
-        <v>37.97564580169467</v>
+        <v>34.93652940130963</v>
       </c>
       <c r="H14">
-        <v>11.28540354310587</v>
+        <v>15.30637562523216</v>
       </c>
       <c r="I14">
-        <v>17.97726737713473</v>
+        <v>22.57212160219105</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.12183557833682</v>
+        <v>8.227815073281915</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.16260459352591</v>
+        <v>22.76466356202744</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.06472117730476</v>
+        <v>8.143435574808754</v>
       </c>
       <c r="C15">
-        <v>8.067115120167562</v>
+        <v>5.181928287452101</v>
       </c>
       <c r="D15">
-        <v>4.502618008522986</v>
+        <v>5.270242350119385</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>27.02848208333126</v>
+        <v>27.63138700904812</v>
       </c>
       <c r="G15">
-        <v>37.81662600053245</v>
+        <v>34.90401993355135</v>
       </c>
       <c r="H15">
-        <v>11.26835456897314</v>
+        <v>15.30674535854185</v>
       </c>
       <c r="I15">
-        <v>17.94502474530666</v>
+        <v>22.57122269932458</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.0687109671032</v>
+        <v>8.201093837444306</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>39.87277630564321</v>
+        <v>22.68855154738805</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.68986134765375</v>
+        <v>7.992538298014246</v>
       </c>
       <c r="C16">
-        <v>7.847797250070745</v>
+        <v>5.071994224189761</v>
       </c>
       <c r="D16">
-        <v>4.48699854253767</v>
+        <v>5.255615613980821</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>26.43888045371141</v>
+        <v>27.53348183781063</v>
       </c>
       <c r="G16">
-        <v>36.91065589411179</v>
+        <v>34.72010007570594</v>
       </c>
       <c r="H16">
-        <v>11.17368009780199</v>
+        <v>15.30964237748603</v>
       </c>
       <c r="I16">
-        <v>17.7659532794683</v>
+        <v>22.56739071830524</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.7592926933228</v>
+        <v>8.045748897359594</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.21593737982803</v>
+        <v>22.24993519435257</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.4541114233929</v>
+        <v>7.898889186358264</v>
       </c>
       <c r="C17">
-        <v>7.710231233062721</v>
+        <v>5.003081866167844</v>
       </c>
       <c r="D17">
-        <v>4.476708401353177</v>
+        <v>5.246505146357173</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>26.08004733915935</v>
+        <v>27.47507997237989</v>
       </c>
       <c r="G17">
-        <v>36.3593925322504</v>
+        <v>34.60943522909093</v>
       </c>
       <c r="H17">
-        <v>11.1182181892837</v>
+        <v>15.31211370653459</v>
       </c>
       <c r="I17">
-        <v>17.66100911361627</v>
+        <v>22.56621635613939</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.56508275853146</v>
+        <v>7.948492747760034</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.20069341041919</v>
+        <v>21.97881183934767</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.3164014072397</v>
+        <v>7.844648711769666</v>
       </c>
       <c r="C18">
-        <v>7.63000605788233</v>
+        <v>4.96290982364664</v>
       </c>
       <c r="D18">
-        <v>4.470551644593133</v>
+        <v>5.241214933430154</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>25.8746814881915</v>
+        <v>27.44210574542144</v>
       </c>
       <c r="G18">
-        <v>36.0439134932432</v>
+        <v>34.54659510866438</v>
       </c>
       <c r="H18">
-        <v>11.08724885257547</v>
+        <v>15.31379008184377</v>
       </c>
       <c r="I18">
-        <v>17.60238737980958</v>
+        <v>22.56597287481537</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.45178435754744</v>
+        <v>7.90686867269154</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>36.61631490322423</v>
+        <v>21.82217396283972</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.26941340209197</v>
+        <v>7.826221247817052</v>
       </c>
       <c r="C19">
-        <v>7.602654967181841</v>
+        <v>4.949216819394458</v>
       </c>
       <c r="D19">
-        <v>4.468428068022182</v>
+        <v>5.239415189007198</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>25.80532236328698</v>
+        <v>27.4310478513082</v>
       </c>
       <c r="G19">
-        <v>35.9373663699506</v>
+        <v>34.5254593728043</v>
       </c>
       <c r="H19">
-        <v>11.076920223236</v>
+        <v>15.31440144268831</v>
       </c>
       <c r="I19">
-        <v>17.58283193513465</v>
+        <v>22.56596459105658</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.41315148895904</v>
+        <v>7.894798605650958</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.4183050760707</v>
+        <v>21.76902533517152</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.47942635770132</v>
+        <v>7.908897678758637</v>
       </c>
       <c r="C20">
-        <v>7.724989507443798</v>
+        <v>5.010473247637387</v>
       </c>
       <c r="D20">
-        <v>4.477828913148238</v>
+        <v>5.247480166638711</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>26.11813910513542</v>
+        <v>27.48123325017512</v>
       </c>
       <c r="G20">
-        <v>36.41790931684615</v>
+        <v>34.62113207453174</v>
       </c>
       <c r="H20">
-        <v>11.12402518203843</v>
+        <v>15.31182424117999</v>
       </c>
       <c r="I20">
-        <v>17.67199916701696</v>
+        <v>22.56629665184927</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.58592214004802</v>
+        <v>7.958919577382479</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.30879498027655</v>
+        <v>22.00774662469286</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.15970166107295</v>
+        <v>8.182044884703297</v>
       </c>
       <c r="C21">
-        <v>8.122795922921972</v>
+        <v>5.209852194891969</v>
       </c>
       <c r="D21">
-        <v>4.506411639173353</v>
+        <v>5.273975874949437</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>27.18162405972141</v>
+        <v>27.65717144550898</v>
       </c>
       <c r="G21">
-        <v>38.0519976690844</v>
+        <v>34.95216006090735</v>
       </c>
       <c r="H21">
-        <v>11.29363374115432</v>
+        <v>15.30621209826646</v>
       </c>
       <c r="I21">
-        <v>17.99283197360121</v>
+        <v>22.57257599676448</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.14722131387069</v>
+        <v>8.240589149249434</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>40.30169460475537</v>
+        <v>22.8011161242409</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.58516489237319</v>
+        <v>8.35679649208698</v>
       </c>
       <c r="C22">
-        <v>8.372757584127783</v>
+        <v>5.335284024826882</v>
       </c>
       <c r="D22">
-        <v>4.522449158288024</v>
+        <v>5.290837750936875</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>27.88661988548811</v>
+        <v>27.77749830553574</v>
       </c>
       <c r="G22">
-        <v>39.13597840613567</v>
+        <v>35.17538296966131</v>
       </c>
       <c r="H22">
-        <v>11.41346859150659</v>
+        <v>15.30481713952665</v>
       </c>
       <c r="I22">
-        <v>18.21947157656875</v>
+        <v>22.58053322903153</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.49940907556078</v>
+        <v>8.418174177228286</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>42.2744326344269</v>
+        <v>23.31226718440264</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.35985736024245</v>
+        <v>8.263891860112842</v>
       </c>
       <c r="C23">
-        <v>8.240278870626051</v>
+        <v>5.268789280658707</v>
       </c>
       <c r="D23">
-        <v>4.514161619274149</v>
+        <v>5.281880246720212</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>27.50938228988202</v>
+        <v>27.71279662014011</v>
       </c>
       <c r="G23">
-        <v>38.55585047487799</v>
+        <v>35.05563280122284</v>
       </c>
       <c r="H23">
-        <v>11.34865139745075</v>
+        <v>15.3053535825244</v>
       </c>
       <c r="I23">
-        <v>18.09687950226077</v>
+        <v>22.57593348605894</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.31280626657143</v>
+        <v>8.32399644085141</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>41.21882250281237</v>
+        <v>23.04018335597244</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.46798824509099</v>
+        <v>7.904374081553639</v>
       </c>
       <c r="C24">
-        <v>7.718320829737116</v>
+        <v>5.007133326588125</v>
       </c>
       <c r="D24">
-        <v>4.477323074683638</v>
+        <v>5.247039523351053</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>26.10091492115069</v>
+        <v>27.47844947720704</v>
       </c>
       <c r="G24">
-        <v>36.39144937916286</v>
+        <v>34.61584148936517</v>
       </c>
       <c r="H24">
-        <v>11.12139699338806</v>
+        <v>15.31195431244137</v>
       </c>
       <c r="I24">
-        <v>17.66702524648299</v>
+        <v>22.56625900567061</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.57650577330495</v>
+        <v>7.954207897902032</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.25992464807481</v>
+        <v>21.99466757896405</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.42526870928017</v>
+        <v>7.502510398995542</v>
       </c>
       <c r="C25">
-        <v>7.113299157390278</v>
+        <v>4.704510895555771</v>
       </c>
       <c r="D25">
-        <v>4.428627898488242</v>
+        <v>5.207547291825257</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>24.62104941864946</v>
+        <v>27.24932883013334</v>
       </c>
       <c r="G25">
-        <v>34.1178526478453</v>
+        <v>34.17265247234582</v>
       </c>
       <c r="H25">
-        <v>10.91154807339435</v>
+        <v>15.32881749702926</v>
       </c>
       <c r="I25">
-        <v>17.26923793082676</v>
+        <v>22.57233086675245</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.72153244025298</v>
+        <v>7.685450123647988</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>32.96736268518459</v>
+        <v>20.84120100499489</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_58/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.197104432957967</v>
+        <v>10.58921159641842</v>
       </c>
       <c r="C2">
-        <v>4.46485883537922</v>
+        <v>6.632604923943526</v>
       </c>
       <c r="D2">
-        <v>5.176866307448251</v>
+        <v>4.386981725228444</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.10163829750831</v>
+        <v>23.56443265423361</v>
       </c>
       <c r="G2">
-        <v>33.87476623968679</v>
+        <v>32.49304505690513</v>
       </c>
       <c r="H2">
-        <v>15.34958577672841</v>
+        <v>10.78414455320605</v>
       </c>
       <c r="I2">
-        <v>22.59092971433252</v>
+        <v>17.02635207249779</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>7.493077718613511</v>
+        <v>10.04174948810348</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.97696696572945</v>
+        <v>29.71262651563378</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.985711345888937</v>
+        <v>9.980530393737578</v>
       </c>
       <c r="C3">
-        <v>4.292404538252832</v>
+        <v>6.285363554405205</v>
       </c>
       <c r="D3">
-        <v>5.155094932509346</v>
+        <v>4.355839307218283</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.0149316256284</v>
+        <v>22.86979400194393</v>
       </c>
       <c r="G3">
-        <v>33.69133336912326</v>
+        <v>31.42335784427701</v>
       </c>
       <c r="H3">
-        <v>15.36885259539231</v>
+        <v>10.71324377556994</v>
       </c>
       <c r="I3">
-        <v>22.61230207878932</v>
+        <v>16.88995942455938</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.363290461200854</v>
+        <v>9.550744626210717</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.38610794789741</v>
+        <v>27.42156309109993</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.854309205985398</v>
+        <v>9.586268683308919</v>
       </c>
       <c r="C4">
-        <v>4.181756748038818</v>
+        <v>6.061779957432221</v>
       </c>
       <c r="D4">
-        <v>5.141252052318277</v>
+        <v>4.335462763036415</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.96837216141881</v>
+        <v>22.45438557558168</v>
       </c>
       <c r="G4">
-        <v>33.58801092124315</v>
+        <v>30.78279539347778</v>
       </c>
       <c r="H4">
-        <v>15.38323650227154</v>
+        <v>10.67686362983924</v>
       </c>
       <c r="I4">
-        <v>22.62973177519134</v>
+        <v>16.81919356737667</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.284192867791535</v>
+        <v>9.23473385410219</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>19.02231616688643</v>
+        <v>25.96593549167131</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.800451048557073</v>
+        <v>9.420485633868289</v>
       </c>
       <c r="C5">
-        <v>4.135503674997983</v>
+        <v>5.96809912294293</v>
       </c>
       <c r="D5">
-        <v>5.135492694787291</v>
+        <v>4.326867805291923</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.9510885198841</v>
+        <v>22.287992280098</v>
       </c>
       <c r="G5">
-        <v>33.54827464489092</v>
+        <v>30.52598454265223</v>
       </c>
       <c r="H5">
-        <v>15.38973922278377</v>
+        <v>10.66377000924401</v>
       </c>
       <c r="I5">
-        <v>22.63791477924383</v>
+        <v>16.79348405110767</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.252155661876677</v>
+        <v>9.10237750900189</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.87406365757266</v>
+        <v>25.35959271446149</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.791492008661015</v>
+        <v>9.3926498550068</v>
       </c>
       <c r="C6">
-        <v>4.127754210531358</v>
+        <v>5.952389696737256</v>
       </c>
       <c r="D6">
-        <v>5.134529250376517</v>
+        <v>4.325423682621382</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.94832089943381</v>
+        <v>22.26054026402728</v>
       </c>
       <c r="G6">
-        <v>33.54182026475845</v>
+        <v>30.48360087418328</v>
       </c>
       <c r="H6">
-        <v>15.39085768552462</v>
+        <v>10.66169845613879</v>
       </c>
       <c r="I6">
-        <v>22.63933871867124</v>
+        <v>16.78939999444448</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.24684910083228</v>
+        <v>9.080186079550648</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.8494536277925</v>
+        <v>25.25809180306609</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.853583986876178</v>
+        <v>9.584053532802052</v>
       </c>
       <c r="C7">
-        <v>4.181137624699352</v>
+        <v>6.060526886008113</v>
       </c>
       <c r="D7">
-        <v>5.141174856872444</v>
+        <v>4.335347997946129</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.96813221446597</v>
+        <v>22.45212970595944</v>
       </c>
       <c r="G7">
-        <v>33.58746539958569</v>
+        <v>30.77931465035079</v>
       </c>
       <c r="H7">
-        <v>15.38332160567415</v>
+        <v>10.67668012177717</v>
       </c>
       <c r="I7">
-        <v>22.62983776396961</v>
+        <v>16.81883435240355</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.283759948397756</v>
+        <v>9.232963235320771</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>19.02031646411048</v>
+        <v>25.95781249772866</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.124603458397402</v>
+        <v>10.38362245116239</v>
       </c>
       <c r="C8">
-        <v>4.406403437414089</v>
+        <v>6.515051430084309</v>
       </c>
       <c r="D8">
-        <v>5.169458877885956</v>
+        <v>4.376519726625346</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.07036243387794</v>
+        <v>23.32267200002388</v>
       </c>
       <c r="G8">
-        <v>33.80960535134113</v>
+        <v>32.12092679790216</v>
       </c>
       <c r="H8">
-        <v>15.35569828860355</v>
+        <v>10.75817262208416</v>
       </c>
       <c r="I8">
-        <v>22.5974034228609</v>
+        <v>16.97654768472191</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.448232073658547</v>
+        <v>9.875508375379082</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.77359157351269</v>
+        <v>28.93225894897516</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.639543133442873</v>
+        <v>11.78718779334902</v>
       </c>
       <c r="C9">
-        <v>4.809117406121309</v>
+        <v>7.322632287120761</v>
       </c>
       <c r="D9">
-        <v>5.221102107091446</v>
+        <v>4.44603817381966</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>27.32328605414124</v>
+        <v>25.11445567252493</v>
       </c>
       <c r="G9">
-        <v>34.31762699956496</v>
+        <v>34.87602711300111</v>
       </c>
       <c r="H9">
-        <v>15.3218376207024</v>
+        <v>10.97782153647785</v>
       </c>
       <c r="I9">
-        <v>22.56808564390244</v>
+        <v>17.3950504776628</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>7.773433052663369</v>
+        <v>11.01747049152265</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.23258364199129</v>
+        <v>34.42377414753638</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.003171866988232</v>
+        <v>12.71647483637071</v>
       </c>
       <c r="C10">
-        <v>5.079784655031846</v>
+        <v>7.863344652536456</v>
       </c>
       <c r="D10">
-        <v>5.256648362555091</v>
+        <v>4.488138921655993</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>27.54022899827629</v>
+        <v>26.47996655140055</v>
       </c>
       <c r="G10">
-        <v>34.7328364922998</v>
+        <v>36.9737791443839</v>
       </c>
       <c r="H10">
-        <v>15.30939493708051</v>
+        <v>11.18013703565798</v>
       </c>
       <c r="I10">
-        <v>22.5675832831748</v>
+        <v>17.77816843998349</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.056749574135678</v>
+        <v>11.78123600004512</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.28077389036368</v>
+        <v>38.3317845594574</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.164558602311233</v>
+        <v>13.11673015519169</v>
       </c>
       <c r="C11">
-        <v>5.197215263212902</v>
+        <v>8.097599052793234</v>
       </c>
       <c r="D11">
-        <v>5.272285356577234</v>
+        <v>4.504704156023084</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>27.64545711226965</v>
+        <v>27.11214943031062</v>
       </c>
       <c r="G11">
-        <v>34.93030350819038</v>
+        <v>37.94521508847522</v>
       </c>
       <c r="H11">
-        <v>15.30644331715996</v>
+        <v>11.28213130471067</v>
       </c>
       <c r="I11">
-        <v>22.57194459722898</v>
+        <v>17.97107903684708</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.222713787200737</v>
+        <v>12.11169597066436</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.75011847002204</v>
+        <v>40.10715740883951</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.225030390514073</v>
+        <v>13.26502096234651</v>
       </c>
       <c r="C12">
-        <v>5.240848490193974</v>
+        <v>8.18458951347904</v>
       </c>
       <c r="D12">
-        <v>5.278128849427157</v>
+        <v>4.510532420070634</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>27.68622300551603</v>
+        <v>27.35323019153291</v>
       </c>
       <c r="G12">
-        <v>35.00626413875828</v>
+        <v>38.31578345850624</v>
       </c>
       <c r="H12">
-        <v>15.30571553319001</v>
+        <v>11.32228608146827</v>
       </c>
       <c r="I12">
-        <v>22.57425718463186</v>
+        <v>18.04701788167033</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>8.284446950136532</v>
+        <v>12.23432722116022</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.92659797367991</v>
+        <v>40.78196877418019</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.212036183194444</v>
+        <v>13.23323051553</v>
       </c>
       <c r="C13">
-        <v>5.231488666703109</v>
+        <v>8.165931503314416</v>
       </c>
       <c r="D13">
-        <v>5.276873832517097</v>
+        <v>4.509298367239706</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>27.6774028696845</v>
+        <v>27.30123153799696</v>
       </c>
       <c r="G13">
-        <v>34.98985282397516</v>
+        <v>38.23584905932634</v>
       </c>
       <c r="H13">
-        <v>15.30585492699885</v>
+        <v>11.31356816798263</v>
       </c>
       <c r="I13">
-        <v>22.57372971476891</v>
+        <v>18.03053095919595</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>8.2712015295547</v>
+        <v>12.20802906343212</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.88864820711136</v>
+        <v>40.63646904230135</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.169546851824519</v>
+        <v>13.12899611878094</v>
       </c>
       <c r="C14">
-        <v>5.20082181595845</v>
+        <v>8.104790424448014</v>
       </c>
       <c r="D14">
-        <v>5.272767672392406</v>
+        <v>4.505193055449096</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>27.64879267556786</v>
+        <v>27.1319485842631</v>
       </c>
       <c r="G14">
-        <v>34.93652940130963</v>
+        <v>37.97564580169479</v>
       </c>
       <c r="H14">
-        <v>15.30637562523216</v>
+        <v>11.28540354310589</v>
       </c>
       <c r="I14">
-        <v>22.57212160219105</v>
+        <v>17.97726737713478</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.227815073281915</v>
+        <v>12.12183557833684</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.76466356202744</v>
+        <v>40.16260459352589</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.143435574808754</v>
+        <v>13.06472117730479</v>
       </c>
       <c r="C15">
-        <v>5.181928287452101</v>
+        <v>8.067115120167697</v>
       </c>
       <c r="D15">
-        <v>5.270242350119385</v>
+        <v>4.502618008523053</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>27.63138700904812</v>
+        <v>27.02848208333119</v>
       </c>
       <c r="G15">
-        <v>34.90401993355135</v>
+        <v>37.81662600053243</v>
       </c>
       <c r="H15">
-        <v>15.30674535854185</v>
+        <v>11.26835456897312</v>
       </c>
       <c r="I15">
-        <v>22.57122269932458</v>
+        <v>17.94502474530662</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.201093837444306</v>
+        <v>12.06871096710323</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.68855154738805</v>
+        <v>39.87277630564316</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.992538298014246</v>
+        <v>12.68986134765375</v>
       </c>
       <c r="C16">
-        <v>5.071994224189761</v>
+        <v>7.847797250070804</v>
       </c>
       <c r="D16">
-        <v>5.255615613980821</v>
+        <v>4.486998542537552</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>27.53348183781063</v>
+        <v>26.43888045371146</v>
       </c>
       <c r="G16">
-        <v>34.72010007570594</v>
+        <v>36.91065589411181</v>
       </c>
       <c r="H16">
-        <v>15.30964237748603</v>
+        <v>11.17368009780211</v>
       </c>
       <c r="I16">
-        <v>22.56739071830524</v>
+        <v>17.76595327946837</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.045748897359594</v>
+        <v>11.75929269332282</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.24993519435257</v>
+        <v>38.21593737982794</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.898889186358264</v>
+        <v>12.45411142339294</v>
       </c>
       <c r="C17">
-        <v>5.003081866167844</v>
+        <v>7.710231233062458</v>
       </c>
       <c r="D17">
-        <v>5.246505146357173</v>
+        <v>4.476708401353218</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>27.47507997237989</v>
+        <v>26.08004733915936</v>
       </c>
       <c r="G17">
-        <v>34.60943522909093</v>
+        <v>36.35939253225046</v>
       </c>
       <c r="H17">
-        <v>15.31211370653459</v>
+        <v>11.11821818928373</v>
       </c>
       <c r="I17">
-        <v>22.56621635613939</v>
+        <v>17.66100911361618</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>7.948492747760034</v>
+        <v>11.5650827585314</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>21.97881183934767</v>
+        <v>37.20069341041917</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.844648711769666</v>
+        <v>12.31640140723978</v>
       </c>
       <c r="C18">
-        <v>4.96290982364664</v>
+        <v>7.630006057882296</v>
       </c>
       <c r="D18">
-        <v>5.241214933430154</v>
+        <v>4.470551644592999</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>27.44210574542144</v>
+        <v>25.87468148819159</v>
       </c>
       <c r="G18">
-        <v>34.54659510866438</v>
+        <v>36.04391349324331</v>
       </c>
       <c r="H18">
-        <v>15.31379008184377</v>
+        <v>11.0872488525755</v>
       </c>
       <c r="I18">
-        <v>22.56597287481537</v>
+        <v>17.60238737980965</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>7.90686867269154</v>
+        <v>11.45178435754748</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.82217396283972</v>
+        <v>36.61631490322425</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.826221247817052</v>
+        <v>12.269413402092</v>
       </c>
       <c r="C19">
-        <v>4.949216819394458</v>
+        <v>7.602654967181739</v>
       </c>
       <c r="D19">
-        <v>5.239415189007198</v>
+        <v>4.468428068022301</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>27.4310478513082</v>
+        <v>25.80532236328689</v>
       </c>
       <c r="G19">
-        <v>34.5254593728043</v>
+        <v>35.93736636995054</v>
       </c>
       <c r="H19">
-        <v>15.31440144268831</v>
+        <v>11.07692022323595</v>
       </c>
       <c r="I19">
-        <v>22.56596459105658</v>
+        <v>17.58283193513458</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>7.894798605650958</v>
+        <v>11.41315148895906</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.76902533517152</v>
+        <v>36.4183050760706</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.908897678758637</v>
+        <v>12.47942635770141</v>
       </c>
       <c r="C20">
-        <v>5.010473247637387</v>
+        <v>7.724989507443753</v>
       </c>
       <c r="D20">
-        <v>5.247480166638711</v>
+        <v>4.47782891314831</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>27.48123325017512</v>
+        <v>26.11813910513539</v>
       </c>
       <c r="G20">
-        <v>34.62113207453174</v>
+        <v>36.41790931684613</v>
       </c>
       <c r="H20">
-        <v>15.31182424117999</v>
+        <v>11.12402518203841</v>
       </c>
       <c r="I20">
-        <v>22.56629665184927</v>
+        <v>17.67199916701696</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>7.958919577382479</v>
+        <v>11.58592214004804</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.00774662469286</v>
+        <v>37.30879498027642</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.182044884703297</v>
+        <v>13.15970166107288</v>
       </c>
       <c r="C21">
-        <v>5.209852194891969</v>
+        <v>8.122795922922192</v>
       </c>
       <c r="D21">
-        <v>5.273975874949437</v>
+        <v>4.506411639173337</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>27.65717144550898</v>
+        <v>27.18162405972149</v>
       </c>
       <c r="G21">
-        <v>34.95216006090735</v>
+        <v>38.05199766908455</v>
       </c>
       <c r="H21">
-        <v>15.30621209826646</v>
+        <v>11.29363374115441</v>
       </c>
       <c r="I21">
-        <v>22.57257599676448</v>
+        <v>17.99283197360131</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.240589149249434</v>
+        <v>12.14722131387067</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.8011161242409</v>
+        <v>40.30169460475545</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.35679649208698</v>
+        <v>13.58516489237322</v>
       </c>
       <c r="C22">
-        <v>5.335284024826882</v>
+        <v>8.372757584127834</v>
       </c>
       <c r="D22">
-        <v>5.290837750936875</v>
+        <v>4.522449158288016</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>27.77749830553574</v>
+        <v>27.88661988548817</v>
       </c>
       <c r="G22">
-        <v>35.17538296966131</v>
+        <v>39.13597840613578</v>
       </c>
       <c r="H22">
-        <v>15.30481713952665</v>
+        <v>11.41346859150659</v>
       </c>
       <c r="I22">
-        <v>22.58053322903153</v>
+        <v>18.21947157656879</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>8.418174177228286</v>
+        <v>12.49940907556082</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.31226718440264</v>
+        <v>42.27443263442682</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.263891860112842</v>
+        <v>13.35985736024244</v>
       </c>
       <c r="C23">
-        <v>5.268789280658707</v>
+        <v>8.240278870626051</v>
       </c>
       <c r="D23">
-        <v>5.281880246720212</v>
+        <v>4.514161619274329</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>27.71279662014011</v>
+        <v>27.50938228988203</v>
       </c>
       <c r="G23">
-        <v>35.05563280122284</v>
+        <v>38.555850474878</v>
       </c>
       <c r="H23">
-        <v>15.3053535825244</v>
+        <v>11.34865139745076</v>
       </c>
       <c r="I23">
-        <v>22.57593348605894</v>
+        <v>18.09687950226079</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>8.32399644085141</v>
+        <v>12.31280626657143</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.04018335597244</v>
+        <v>41.21882250281242</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.904374081553639</v>
+        <v>12.46798824509106</v>
       </c>
       <c r="C24">
-        <v>5.007133326588125</v>
+        <v>7.718320829737009</v>
       </c>
       <c r="D24">
-        <v>5.247039523351053</v>
+        <v>4.477323074683938</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>27.47844947720704</v>
+        <v>26.10091492115062</v>
       </c>
       <c r="G24">
-        <v>34.61584148936517</v>
+        <v>36.39144937916286</v>
       </c>
       <c r="H24">
-        <v>15.31195431244137</v>
+        <v>11.12139699338802</v>
       </c>
       <c r="I24">
-        <v>22.56625900567061</v>
+        <v>17.66702524648294</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>7.954207897902032</v>
+        <v>11.57650577330495</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>21.99466757896405</v>
+        <v>37.25992464807483</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.502510398995542</v>
+        <v>11.42526870928013</v>
       </c>
       <c r="C25">
-        <v>4.704510895555771</v>
+        <v>7.113299157390262</v>
       </c>
       <c r="D25">
-        <v>5.207547291825257</v>
+        <v>4.42862789848817</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>27.24932883013334</v>
+        <v>24.62104941864946</v>
       </c>
       <c r="G25">
-        <v>34.17265247234582</v>
+        <v>34.11785264784528</v>
       </c>
       <c r="H25">
-        <v>15.32881749702926</v>
+        <v>10.91154807339434</v>
       </c>
       <c r="I25">
-        <v>22.57233086675245</v>
+        <v>17.26923793082675</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>7.685450123647988</v>
+        <v>10.72153244025293</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.84120100499489</v>
+        <v>32.96736268518459</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_58/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,922 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.58921159641842</v>
+        <v>20.67316162450875</v>
       </c>
       <c r="C2">
-        <v>6.632604923943526</v>
+        <v>16.92250713237661</v>
       </c>
       <c r="D2">
-        <v>4.386981725228444</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>3.881537343378174</v>
       </c>
       <c r="F2">
-        <v>23.56443265423361</v>
+        <v>19.28038537116413</v>
       </c>
       <c r="G2">
-        <v>32.49304505690513</v>
-      </c>
-      <c r="H2">
-        <v>10.78414455320605</v>
+        <v>25.36667600919554</v>
       </c>
       <c r="I2">
-        <v>17.02635207249779</v>
+        <v>3.660206687234496</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.648697223298855</v>
       </c>
       <c r="K2">
-        <v>10.04174948810348</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
+        <v>11.92945457791251</v>
       </c>
       <c r="M2">
-        <v>29.71262651563378</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>11.67910998391779</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.980530393737578</v>
+        <v>19.30683557554724</v>
       </c>
       <c r="C3">
-        <v>6.285363554405205</v>
+        <v>15.87177549105665</v>
       </c>
       <c r="D3">
-        <v>4.355839307218283</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>3.766112981348295</v>
       </c>
       <c r="F3">
-        <v>22.86979400194393</v>
+        <v>18.52465110687544</v>
       </c>
       <c r="G3">
-        <v>31.42335784427701</v>
-      </c>
-      <c r="H3">
-        <v>10.71324377556994</v>
+        <v>24.18055317924335</v>
       </c>
       <c r="I3">
-        <v>16.88995942455938</v>
+        <v>3.470386971157706</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.567481800968778</v>
       </c>
       <c r="K3">
-        <v>9.550744626210717</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
+        <v>12.00399153797563</v>
       </c>
       <c r="M3">
-        <v>27.42156309109993</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>11.74963972128805</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.586268683308919</v>
+        <v>18.41477361496453</v>
       </c>
       <c r="C4">
-        <v>6.061779957432221</v>
+        <v>15.19445357798114</v>
       </c>
       <c r="D4">
-        <v>4.335462763036415</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>3.693544985593786</v>
       </c>
       <c r="F4">
-        <v>22.45438557558168</v>
+        <v>18.05977065539175</v>
       </c>
       <c r="G4">
-        <v>30.78279539347778</v>
-      </c>
-      <c r="H4">
-        <v>10.67686362983924</v>
+        <v>23.44438887739857</v>
       </c>
       <c r="I4">
-        <v>16.81919356737667</v>
+        <v>3.350496139018247</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.522885253024629</v>
       </c>
       <c r="K4">
-        <v>9.23473385410219</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
+        <v>12.05782271734058</v>
       </c>
       <c r="M4">
-        <v>25.96593549167131</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>11.79657302571657</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.420485633868289</v>
+        <v>18.03122395172181</v>
       </c>
       <c r="C5">
-        <v>5.96809912294293</v>
+        <v>14.91758053472914</v>
       </c>
       <c r="D5">
-        <v>4.326867805291923</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>3.665275577413438</v>
       </c>
       <c r="F5">
-        <v>22.287992280098</v>
+        <v>17.85931062600361</v>
       </c>
       <c r="G5">
-        <v>30.52598454265223</v>
-      </c>
-      <c r="H5">
-        <v>10.66377000924401</v>
+        <v>23.12243257647229</v>
       </c>
       <c r="I5">
-        <v>16.79348405110767</v>
+        <v>3.300900694406875</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.502456613325007</v>
       </c>
       <c r="K5">
-        <v>9.10237750900189</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
+        <v>12.07484573701679</v>
       </c>
       <c r="M5">
-        <v>25.35959271446149</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>11.81799756199512</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.3926498550068</v>
+        <v>17.95864723787882</v>
       </c>
       <c r="C6">
-        <v>5.952389696737256</v>
+        <v>14.87994834485526</v>
       </c>
       <c r="D6">
-        <v>4.325423682621382</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>3.662650108300861</v>
       </c>
       <c r="F6">
-        <v>22.26054026402728</v>
+        <v>17.8124820548908</v>
       </c>
       <c r="G6">
-        <v>30.48360087418328</v>
-      </c>
-      <c r="H6">
-        <v>10.66169845613879</v>
+        <v>23.04390219365418</v>
       </c>
       <c r="I6">
-        <v>16.78939999444448</v>
+        <v>3.292928334939834</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.494803054818318</v>
       </c>
       <c r="K6">
-        <v>9.080186079550648</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
+        <v>12.06944126371814</v>
       </c>
       <c r="M6">
-        <v>25.25809180306609</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>11.82334151108984</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.584053532802052</v>
+        <v>18.38812144663504</v>
       </c>
       <c r="C7">
-        <v>6.060526886008113</v>
+        <v>15.21433054129979</v>
       </c>
       <c r="D7">
-        <v>4.335347997946129</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>3.698847529689881</v>
       </c>
       <c r="F7">
-        <v>22.45212970595944</v>
+        <v>18.02051439896936</v>
       </c>
       <c r="G7">
-        <v>30.77931465035079</v>
-      </c>
-      <c r="H7">
-        <v>10.67668012177717</v>
+        <v>23.3728523087261</v>
       </c>
       <c r="I7">
-        <v>16.81883435240355</v>
+        <v>3.350410596931236</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.510786744933272</v>
       </c>
       <c r="K7">
-        <v>9.232963235320771</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
+        <v>12.03520512283915</v>
       </c>
       <c r="M7">
-        <v>25.95781249772866</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>11.80168802654242</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.38362245116239</v>
+        <v>20.18672510445283</v>
       </c>
       <c r="C8">
-        <v>6.515051430084309</v>
+        <v>16.59583164583751</v>
       </c>
       <c r="D8">
-        <v>4.376519726625346</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>3.84947056834262</v>
       </c>
       <c r="F8">
-        <v>23.32267200002388</v>
+        <v>18.97398716970127</v>
       </c>
       <c r="G8">
-        <v>32.12092679790216</v>
-      </c>
-      <c r="H8">
-        <v>10.75817262208416</v>
+        <v>24.87554350592623</v>
       </c>
       <c r="I8">
-        <v>16.97654768472191</v>
+        <v>3.595839076349377</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.604121773284874</v>
       </c>
       <c r="K8">
-        <v>9.875508375379082</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
+        <v>11.92302278730197</v>
       </c>
       <c r="M8">
-        <v>28.93225894897516</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>11.70948281456036</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.78718779334902</v>
+        <v>23.32940517029068</v>
       </c>
       <c r="C9">
-        <v>7.322632287120761</v>
+        <v>19.01219134975305</v>
       </c>
       <c r="D9">
-        <v>4.44603817381966</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>4.120619777369865</v>
       </c>
       <c r="F9">
-        <v>25.11445567252493</v>
+        <v>20.88743901953723</v>
       </c>
       <c r="G9">
-        <v>34.87602711300111</v>
-      </c>
-      <c r="H9">
-        <v>10.97782153647785</v>
+        <v>27.85435619180109</v>
       </c>
       <c r="I9">
-        <v>17.3950504776628</v>
+        <v>4.051433413909675</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.851202176121735</v>
       </c>
       <c r="K9">
-        <v>11.01747049152265</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
+        <v>11.81359789637906</v>
       </c>
       <c r="M9">
-        <v>34.42377414753638</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>11.54912533568816</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.71647483637071</v>
+        <v>25.37875715320658</v>
       </c>
       <c r="C10">
-        <v>7.863344652536456</v>
+        <v>20.64292686606609</v>
       </c>
       <c r="D10">
-        <v>4.488138921655993</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>4.312727645501634</v>
       </c>
       <c r="F10">
-        <v>26.47996655140055</v>
+        <v>22.25448219348009</v>
       </c>
       <c r="G10">
-        <v>36.9737791443839</v>
-      </c>
-      <c r="H10">
-        <v>11.18013703565798</v>
+        <v>29.94887654050205</v>
       </c>
       <c r="I10">
-        <v>17.77816843998349</v>
+        <v>4.372454253566082</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.055178605865661</v>
       </c>
       <c r="K10">
-        <v>11.78123600004512</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
+        <v>11.77170618046476</v>
       </c>
       <c r="M10">
-        <v>38.3317845594574</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>11.45406947779395</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.11673015519169</v>
+        <v>26.23219172514826</v>
       </c>
       <c r="C11">
-        <v>8.097599052793234</v>
+        <v>21.3798102759296</v>
       </c>
       <c r="D11">
-        <v>4.504704156023084</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>4.406149860830976</v>
       </c>
       <c r="F11">
-        <v>27.11214943031062</v>
+        <v>22.8221826550661</v>
       </c>
       <c r="G11">
-        <v>37.94521508847522</v>
-      </c>
-      <c r="H11">
-        <v>11.28213130471067</v>
+        <v>30.80147946858639</v>
       </c>
       <c r="I11">
-        <v>17.97107903684708</v>
+        <v>4.517139564446119</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>9.136513436731203</v>
       </c>
       <c r="K11">
-        <v>12.11169597066436</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
+        <v>11.72751456917218</v>
       </c>
       <c r="M11">
-        <v>40.10715740883951</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>11.42559853994398</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.26502096234651</v>
+        <v>26.56182307407354</v>
       </c>
       <c r="C12">
-        <v>8.18458951347904</v>
+        <v>21.638644710821</v>
       </c>
       <c r="D12">
-        <v>4.510532420070634</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>4.436683827581414</v>
       </c>
       <c r="F12">
-        <v>27.35323019153291</v>
+        <v>23.06206241292204</v>
       </c>
       <c r="G12">
-        <v>38.31578345850624</v>
-      </c>
-      <c r="H12">
-        <v>11.32228608146827</v>
+        <v>31.16800952372685</v>
       </c>
       <c r="I12">
-        <v>18.04701788167033</v>
+        <v>4.570899227565732</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.177897111451705</v>
       </c>
       <c r="K12">
-        <v>12.23432722116022</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
+        <v>11.73279956991903</v>
       </c>
       <c r="M12">
-        <v>40.78196877418019</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>11.41032762660184</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.23323051553</v>
+        <v>26.49391457240563</v>
       </c>
       <c r="C13">
-        <v>8.165931503314416</v>
+        <v>21.58007790950386</v>
       </c>
       <c r="D13">
-        <v>4.509298367239706</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>4.429229119653639</v>
       </c>
       <c r="F13">
-        <v>27.30123153799696</v>
+        <v>23.01555147435204</v>
       </c>
       <c r="G13">
-        <v>38.23584905932634</v>
-      </c>
-      <c r="H13">
-        <v>11.31356816798263</v>
+        <v>31.09821069407535</v>
       </c>
       <c r="I13">
-        <v>18.03053095919595</v>
+        <v>4.559155247702783</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.170859006284603</v>
       </c>
       <c r="K13">
-        <v>12.20802906343212</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
+        <v>11.73560188560068</v>
       </c>
       <c r="M13">
-        <v>40.63646904230135</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>11.41251515770417</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.12899611878094</v>
+        <v>26.26063849668028</v>
       </c>
       <c r="C14">
-        <v>8.104790424448014</v>
+        <v>21.39990095969562</v>
       </c>
       <c r="D14">
-        <v>4.505193055449096</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>4.408287585306994</v>
       </c>
       <c r="F14">
-        <v>27.1319485842631</v>
+        <v>22.84412224161364</v>
       </c>
       <c r="G14">
-        <v>37.97564580169479</v>
-      </c>
-      <c r="H14">
-        <v>11.28540354310589</v>
+        <v>30.83554959686923</v>
       </c>
       <c r="I14">
-        <v>17.97726737713478</v>
+        <v>4.521487210201316</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.140715843144982</v>
       </c>
       <c r="K14">
-        <v>12.12183557833684</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
+        <v>11.72962156842466</v>
       </c>
       <c r="M14">
-        <v>40.16260459352589</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>11.42387545800966</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.06472117730479</v>
+        <v>26.11127025529974</v>
       </c>
       <c r="C15">
-        <v>8.067115120167697</v>
+        <v>21.29498982562303</v>
       </c>
       <c r="D15">
-        <v>4.502618008523053</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+        <v>4.397189369452655</v>
       </c>
       <c r="F15">
-        <v>27.02848208333119</v>
+        <v>22.72878836396557</v>
       </c>
       <c r="G15">
-        <v>37.81662600053243</v>
-      </c>
-      <c r="H15">
-        <v>11.26835456897312</v>
+        <v>30.65628172324245</v>
       </c>
       <c r="I15">
-        <v>17.94502474530662</v>
+        <v>4.498797408038293</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.118579063923629</v>
       </c>
       <c r="K15">
-        <v>12.06871096710323</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
+        <v>11.71828128033057</v>
       </c>
       <c r="M15">
-        <v>39.87277630564316</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>11.43301651798606</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.68986134765375</v>
+        <v>25.2745908524131</v>
       </c>
       <c r="C16">
-        <v>7.847797250070804</v>
+        <v>20.64634824971651</v>
       </c>
       <c r="D16">
-        <v>4.486998542537552</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>4.321660344861825</v>
       </c>
       <c r="F16">
-        <v>26.43888045371146</v>
+        <v>22.12978820112645</v>
       </c>
       <c r="G16">
-        <v>36.91065589411181</v>
-      </c>
-      <c r="H16">
-        <v>11.17368009780211</v>
+        <v>29.73738816575568</v>
       </c>
       <c r="I16">
-        <v>17.76595327946837</v>
+        <v>4.365658380596611</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.017734083640326</v>
       </c>
       <c r="K16">
-        <v>11.75929269332282</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
+        <v>11.70789243413628</v>
       </c>
       <c r="M16">
-        <v>38.21593737982794</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>11.47334621114487</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.45411142339294</v>
+        <v>24.74762061031079</v>
       </c>
       <c r="C17">
-        <v>7.710231233062458</v>
+        <v>20.24009024942624</v>
       </c>
       <c r="D17">
-        <v>4.476708401353218</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+        <v>4.274698847239181</v>
       </c>
       <c r="F17">
-        <v>26.08004733915936</v>
+        <v>21.76044947002918</v>
       </c>
       <c r="G17">
-        <v>36.35939253225046</v>
-      </c>
-      <c r="H17">
-        <v>11.11821818928373</v>
+        <v>29.16916942566275</v>
       </c>
       <c r="I17">
-        <v>17.66100911361618</v>
+        <v>4.283459732580495</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.957621435785622</v>
       </c>
       <c r="K17">
-        <v>11.5650827585314</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
+        <v>11.70515502285603</v>
       </c>
       <c r="M17">
-        <v>37.20069341041917</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>11.49919401310367</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.31640140723978</v>
+        <v>24.45422810001498</v>
       </c>
       <c r="C18">
-        <v>7.630006057882296</v>
+        <v>19.98702832606726</v>
       </c>
       <c r="D18">
-        <v>4.470551644592999</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+        <v>4.242824811646845</v>
       </c>
       <c r="F18">
-        <v>25.87468148819159</v>
+        <v>21.57452901637053</v>
       </c>
       <c r="G18">
-        <v>36.04391349324331</v>
-      </c>
-      <c r="H18">
-        <v>11.0872488525755</v>
+        <v>28.88918013000725</v>
       </c>
       <c r="I18">
-        <v>17.60238737980965</v>
+        <v>4.234482898234255</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.933548516738925</v>
       </c>
       <c r="K18">
-        <v>11.45178435754748</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
+        <v>11.72510871751471</v>
       </c>
       <c r="M18">
-        <v>36.61631490322425</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>11.50928685537988</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.269413402092</v>
+        <v>24.34265595318438</v>
       </c>
       <c r="C19">
-        <v>7.602654967181739</v>
+        <v>19.9133695987922</v>
       </c>
       <c r="D19">
-        <v>4.468428068022301</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+        <v>4.235566179164065</v>
       </c>
       <c r="F19">
-        <v>25.80532236328689</v>
+        <v>21.49056757059569</v>
       </c>
       <c r="G19">
-        <v>35.93736636995054</v>
-      </c>
-      <c r="H19">
-        <v>11.07692022323595</v>
+        <v>28.75682985065002</v>
       </c>
       <c r="I19">
-        <v>17.58283193513458</v>
+        <v>4.21895862605939</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.91790352053518</v>
       </c>
       <c r="K19">
-        <v>11.41315148895906</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
+        <v>11.71646597576519</v>
       </c>
       <c r="M19">
-        <v>36.4183050760706</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>11.51676305972865</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.47942635770141</v>
+        <v>24.80538539842852</v>
       </c>
       <c r="C20">
-        <v>7.724989507443753</v>
+        <v>20.28239043622063</v>
       </c>
       <c r="D20">
-        <v>4.47782891314831</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+        <v>4.279359407616252</v>
       </c>
       <c r="F20">
-        <v>26.11813910513539</v>
+        <v>21.80194407270265</v>
       </c>
       <c r="G20">
-        <v>36.41790931684613</v>
-      </c>
-      <c r="H20">
-        <v>11.12402518203841</v>
+        <v>29.23358332700598</v>
       </c>
       <c r="I20">
-        <v>17.67199916701696</v>
+        <v>4.292109015691238</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.964725542506645</v>
       </c>
       <c r="K20">
-        <v>11.58592214004804</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
+        <v>11.70690032012064</v>
       </c>
       <c r="M20">
-        <v>37.30879498027642</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>11.49599203876176</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.15970166107288</v>
+        <v>26.31390437709054</v>
       </c>
       <c r="C21">
-        <v>8.122795922922192</v>
+        <v>21.47000945193297</v>
       </c>
       <c r="D21">
-        <v>4.506411639173337</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+        <v>4.419474304646717</v>
       </c>
       <c r="F21">
-        <v>27.18162405972149</v>
+        <v>22.86580391486882</v>
       </c>
       <c r="G21">
-        <v>38.05199766908455</v>
-      </c>
-      <c r="H21">
-        <v>11.29363374115441</v>
+        <v>30.86195604475464</v>
       </c>
       <c r="I21">
-        <v>17.99283197360131</v>
+        <v>4.533785395837193</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>9.138775294808525</v>
       </c>
       <c r="K21">
-        <v>12.14722131387067</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
+        <v>11.70872630991233</v>
       </c>
       <c r="M21">
-        <v>40.30169460475545</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>11.42651005030192</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.58516489237322</v>
+        <v>27.27493469438781</v>
       </c>
       <c r="C22">
-        <v>8.372757584127834</v>
+        <v>22.1974618858771</v>
       </c>
       <c r="D22">
-        <v>4.522449158288016</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>4.502571348622363</v>
       </c>
       <c r="F22">
-        <v>27.88661988548817</v>
+        <v>23.59091727949804</v>
       </c>
       <c r="G22">
-        <v>39.13597840613578</v>
-      </c>
-      <c r="H22">
-        <v>11.41346859150659</v>
+        <v>31.97540156766656</v>
       </c>
       <c r="I22">
-        <v>18.21947157656879</v>
+        <v>4.688465798776993</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>9.272000686254138</v>
       </c>
       <c r="K22">
-        <v>12.49940907556082</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
+        <v>11.75109474757043</v>
       </c>
       <c r="M22">
-        <v>42.27443263442682</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>11.37723433445269</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.35985736024244</v>
+        <v>26.78451640601417</v>
       </c>
       <c r="C23">
-        <v>8.240278870626051</v>
+        <v>21.79130671796722</v>
       </c>
       <c r="D23">
-        <v>4.514161619274329</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+        <v>4.452388556224272</v>
       </c>
       <c r="F23">
-        <v>27.50938228988203</v>
+        <v>23.23885253618373</v>
       </c>
       <c r="G23">
-        <v>38.555850474878</v>
-      </c>
-      <c r="H23">
-        <v>11.34865139745076</v>
+        <v>31.44322917931247</v>
       </c>
       <c r="I23">
-        <v>18.09687950226079</v>
+        <v>4.604867029327664</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>9.213289702405977</v>
       </c>
       <c r="K23">
-        <v>12.31280626657143</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
+        <v>11.75452938639492</v>
       </c>
       <c r="M23">
-        <v>41.21882250281242</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>11.39592987832216</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.46798824509106</v>
+        <v>24.81017959214232</v>
       </c>
       <c r="C24">
-        <v>7.718320829737009</v>
+        <v>20.22915691698624</v>
       </c>
       <c r="D24">
-        <v>4.477323074683938</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>4.267498081588589</v>
       </c>
       <c r="F24">
-        <v>26.10091492115062</v>
+        <v>21.84011069347762</v>
       </c>
       <c r="G24">
-        <v>36.39144937916286</v>
-      </c>
-      <c r="H24">
-        <v>11.12139699338802</v>
+        <v>29.30586440864458</v>
       </c>
       <c r="I24">
-        <v>17.66702524648294</v>
+        <v>4.285752643631629</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.982314326628027</v>
       </c>
       <c r="K24">
-        <v>11.57650577330495</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
+        <v>11.74898933432308</v>
       </c>
       <c r="M24">
-        <v>37.25992464807483</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>11.48644173636786</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.42526870928013</v>
+        <v>22.49114319128373</v>
       </c>
       <c r="C25">
-        <v>7.113299157390262</v>
+        <v>18.42153315412235</v>
       </c>
       <c r="D25">
-        <v>4.42862789848817</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
+        <v>4.058670819547705</v>
       </c>
       <c r="F25">
-        <v>24.62104941864946</v>
+        <v>20.31423944514119</v>
       </c>
       <c r="G25">
-        <v>34.11785264784528</v>
-      </c>
-      <c r="H25">
-        <v>10.91154807339434</v>
+        <v>26.95323514336671</v>
       </c>
       <c r="I25">
-        <v>17.26923793082675</v>
+        <v>3.932021125150281</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.758865570807849</v>
       </c>
       <c r="K25">
-        <v>10.72153244025293</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
+        <v>11.79332621816741</v>
       </c>
       <c r="M25">
-        <v>32.96736268518459</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>11.59922365664157</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_58/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,916 +421,1066 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.67316162450875</v>
+        <v>20.29068615674332</v>
       </c>
       <c r="C2">
-        <v>16.92250713237661</v>
+        <v>17.18753281347626</v>
       </c>
       <c r="D2">
-        <v>3.881537343378174</v>
+        <v>4.025179208865638</v>
       </c>
       <c r="F2">
-        <v>19.28038537116413</v>
+        <v>18.76162002661867</v>
       </c>
       <c r="G2">
-        <v>25.36667600919554</v>
+        <v>23.85290761871738</v>
       </c>
       <c r="I2">
-        <v>3.660206687234496</v>
+        <v>3.582948301115912</v>
       </c>
       <c r="J2">
-        <v>8.648697223298855</v>
+        <v>9.1765629270608</v>
       </c>
       <c r="K2">
-        <v>11.92945457791251</v>
+        <v>11.63174493767556</v>
+      </c>
+      <c r="L2">
+        <v>11.03685550116227</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>11.67910998391779</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>6.295311885191944</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>11.81421390699053</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.30683557554724</v>
+        <v>18.99363987462092</v>
       </c>
       <c r="C3">
-        <v>15.87177549105665</v>
+        <v>16.07195899229472</v>
       </c>
       <c r="D3">
-        <v>3.766112981348295</v>
+        <v>3.88083525769898</v>
       </c>
       <c r="F3">
-        <v>18.52465110687544</v>
+        <v>18.10291318218998</v>
       </c>
       <c r="G3">
-        <v>24.18055317924335</v>
+        <v>22.79865001955273</v>
       </c>
       <c r="I3">
-        <v>3.470386971157706</v>
+        <v>3.419370971586539</v>
       </c>
       <c r="J3">
-        <v>8.567481800968778</v>
+        <v>9.097696743975678</v>
       </c>
       <c r="K3">
-        <v>12.00399153797563</v>
+        <v>11.7481657618367</v>
+      </c>
+      <c r="L3">
+        <v>11.21626916655805</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>11.74963972128805</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>6.249499923726126</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>11.84548467510403</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.41477361496453</v>
+        <v>18.14634586687566</v>
       </c>
       <c r="C4">
-        <v>15.19445357798114</v>
+        <v>15.35191018126155</v>
       </c>
       <c r="D4">
-        <v>3.693544985593786</v>
+        <v>3.789875776609721</v>
       </c>
       <c r="F4">
-        <v>18.05977065539175</v>
+        <v>17.69690598412053</v>
       </c>
       <c r="G4">
-        <v>23.44438887739857</v>
+        <v>22.14624673441402</v>
       </c>
       <c r="I4">
-        <v>3.350496139018247</v>
+        <v>3.316109295321388</v>
       </c>
       <c r="J4">
-        <v>8.522885253024629</v>
+        <v>9.050774603612696</v>
       </c>
       <c r="K4">
-        <v>12.05782271734058</v>
+        <v>11.82491474800376</v>
+      </c>
+      <c r="L4">
+        <v>11.32836401266071</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>11.79657302571657</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>6.252161447005005</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>11.86877975975512</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.03122395172181</v>
+        <v>17.78180647466804</v>
       </c>
       <c r="C5">
-        <v>14.91758053472914</v>
+        <v>15.0568489600832</v>
       </c>
       <c r="D5">
-        <v>3.665275577413438</v>
+        <v>3.75395990776058</v>
       </c>
       <c r="F5">
-        <v>17.85931062600361</v>
+        <v>17.52056339108085</v>
       </c>
       <c r="G5">
-        <v>23.12243257647229</v>
+        <v>21.85934049376475</v>
       </c>
       <c r="I5">
-        <v>3.300900694406875</v>
+        <v>3.273690606299828</v>
       </c>
       <c r="J5">
-        <v>8.502456613325007</v>
+        <v>9.028730564208875</v>
       </c>
       <c r="K5">
-        <v>12.07484573701679</v>
+        <v>11.85111883354323</v>
+      </c>
+      <c r="L5">
+        <v>11.36907897815059</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>11.81799756199512</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>6.256798317276398</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>11.88076486552086</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.95864723787882</v>
+        <v>17.71265498255937</v>
       </c>
       <c r="C6">
-        <v>14.87994834485526</v>
+        <v>15.01609361930029</v>
       </c>
       <c r="D6">
-        <v>3.662650108300861</v>
+        <v>3.750050376992082</v>
       </c>
       <c r="F6">
-        <v>17.8124820548908</v>
+        <v>17.47818791950955</v>
       </c>
       <c r="G6">
-        <v>23.04390219365418</v>
+        <v>21.7870610412596</v>
       </c>
       <c r="I6">
-        <v>3.292928334939834</v>
+        <v>3.267280218288261</v>
       </c>
       <c r="J6">
-        <v>8.494803054818318</v>
+        <v>9.021064122091476</v>
       </c>
       <c r="K6">
-        <v>12.06944126371814</v>
+        <v>11.84782630737015</v>
+      </c>
+      <c r="L6">
+        <v>11.36920975322785</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>11.82334151108984</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>6.253024444131443</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>11.88464312152456</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.38812144663504</v>
+        <v>18.11142789470096</v>
       </c>
       <c r="C7">
-        <v>15.21433054129979</v>
+        <v>15.35598314192735</v>
       </c>
       <c r="D7">
-        <v>3.698847529689881</v>
+        <v>3.799142258121305</v>
       </c>
       <c r="F7">
-        <v>18.02051439896936</v>
+        <v>17.63510715825222</v>
       </c>
       <c r="G7">
-        <v>23.3728523087261</v>
+        <v>22.16509325000136</v>
       </c>
       <c r="I7">
-        <v>3.350410596931236</v>
+        <v>3.316262034471241</v>
       </c>
       <c r="J7">
-        <v>8.510786744933272</v>
+        <v>8.988384146864464</v>
       </c>
       <c r="K7">
-        <v>12.03520512283915</v>
+        <v>11.79544770040874</v>
+      </c>
+      <c r="L7">
+        <v>11.30368391522971</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>11.80168802654242</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>6.23189705276246</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>11.87636831930534</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.18672510445283</v>
+        <v>19.80041966213031</v>
       </c>
       <c r="C8">
-        <v>16.59583164583751</v>
+        <v>16.7915060334212</v>
       </c>
       <c r="D8">
-        <v>3.84947056834262</v>
+        <v>3.996503286481666</v>
       </c>
       <c r="F8">
-        <v>18.97398716970127</v>
+        <v>18.41368390236896</v>
       </c>
       <c r="G8">
-        <v>24.87554350592623</v>
+        <v>23.68751389147493</v>
       </c>
       <c r="I8">
-        <v>3.595839076349377</v>
+        <v>3.526217413816752</v>
       </c>
       <c r="J8">
-        <v>8.604121773284874</v>
+        <v>8.968065107716248</v>
       </c>
       <c r="K8">
-        <v>11.92302278730197</v>
+        <v>11.61403061669202</v>
+      </c>
+      <c r="L8">
+        <v>11.05416305578833</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>11.70948281456036</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>6.228263365701949</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>11.83964336036844</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.32940517029068</v>
+        <v>22.77768815965769</v>
       </c>
       <c r="C9">
-        <v>19.01219134975305</v>
+        <v>19.34736274642718</v>
       </c>
       <c r="D9">
-        <v>4.120619777369865</v>
+        <v>4.338679346624837</v>
       </c>
       <c r="F9">
-        <v>20.88743901953723</v>
+        <v>20.06894846091607</v>
       </c>
       <c r="G9">
-        <v>27.85435619180109</v>
+        <v>26.39786896937699</v>
       </c>
       <c r="I9">
-        <v>4.051433413909675</v>
+        <v>3.9175171799027</v>
       </c>
       <c r="J9">
-        <v>8.851202176121735</v>
+        <v>9.144433595502834</v>
       </c>
       <c r="K9">
-        <v>11.81359789637906</v>
+        <v>11.37293744866712</v>
+      </c>
+      <c r="L9">
+        <v>10.63516210573165</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>11.54912533568816</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>6.518595255839725</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>11.78274957140688</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.37875715320658</v>
+        <v>24.67480976481975</v>
       </c>
       <c r="C10">
-        <v>20.64292686606609</v>
+        <v>20.9974673426094</v>
       </c>
       <c r="D10">
-        <v>4.312727645501634</v>
+        <v>4.600532843566103</v>
       </c>
       <c r="F10">
-        <v>22.25448219348009</v>
+        <v>21.13118038272446</v>
       </c>
       <c r="G10">
-        <v>29.94887654050205</v>
+        <v>28.72848827633214</v>
       </c>
       <c r="I10">
-        <v>4.372454253566082</v>
+        <v>4.190143945467901</v>
       </c>
       <c r="J10">
-        <v>9.055178605865661</v>
+        <v>8.999215192133393</v>
       </c>
       <c r="K10">
-        <v>11.77170618046476</v>
+        <v>11.16792689605329</v>
+      </c>
+      <c r="L10">
+        <v>10.29762151393251</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>11.45406947779395</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>6.815029514310914</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>11.78292306393223</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.23219172514826</v>
+        <v>25.39343606345354</v>
       </c>
       <c r="C11">
-        <v>21.3798102759296</v>
+        <v>21.62408664159266</v>
       </c>
       <c r="D11">
-        <v>4.406149860830976</v>
+        <v>4.762257017287517</v>
       </c>
       <c r="F11">
-        <v>22.8221826550661</v>
+        <v>21.3611850370186</v>
       </c>
       <c r="G11">
-        <v>30.80147946858639</v>
+        <v>30.3988744263787</v>
       </c>
       <c r="I11">
-        <v>4.517139564446119</v>
+        <v>4.308745926296626</v>
       </c>
       <c r="J11">
-        <v>9.136513436731203</v>
+        <v>8.451365260089087</v>
       </c>
       <c r="K11">
-        <v>11.72751456917218</v>
+        <v>10.95972902097552</v>
+      </c>
+      <c r="L11">
+        <v>10.07415507529713</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>11.42559853994398</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>6.858120697112441</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>11.82989467640553</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.56182307407354</v>
+        <v>25.66416771531363</v>
       </c>
       <c r="C12">
-        <v>21.638644710821</v>
+        <v>21.82802282915949</v>
       </c>
       <c r="D12">
-        <v>4.436683827581414</v>
+        <v>4.823123506909964</v>
       </c>
       <c r="F12">
-        <v>23.06206241292204</v>
+        <v>21.44887659402163</v>
       </c>
       <c r="G12">
-        <v>31.16800952372685</v>
+        <v>31.1545298676072</v>
       </c>
       <c r="I12">
-        <v>4.570899227565732</v>
+        <v>4.351222767048051</v>
       </c>
       <c r="J12">
-        <v>9.177897111451705</v>
+        <v>8.20251172275916</v>
       </c>
       <c r="K12">
-        <v>11.73279956991903</v>
+        <v>10.88843059341322</v>
+      </c>
+      <c r="L12">
+        <v>9.99514838064457</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>11.41032762660184</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>6.883491481990792</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>11.84720439687017</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.49391457240563</v>
+        <v>25.6091868277551</v>
       </c>
       <c r="C13">
-        <v>21.58007790950386</v>
+        <v>21.78190769000524</v>
       </c>
       <c r="D13">
-        <v>4.429229119653639</v>
+        <v>4.808927317360089</v>
       </c>
       <c r="F13">
-        <v>23.01555147435204</v>
+        <v>21.4360038896268</v>
       </c>
       <c r="G13">
-        <v>31.09821069407535</v>
+        <v>30.99711056690115</v>
       </c>
       <c r="I13">
-        <v>4.559155247702783</v>
+        <v>4.341745495537395</v>
       </c>
       <c r="J13">
-        <v>9.170859006284603</v>
+        <v>8.259689874012585</v>
       </c>
       <c r="K13">
-        <v>11.73560188560068</v>
+        <v>10.90778584967218</v>
+      </c>
+      <c r="L13">
+        <v>10.01446887365833</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>11.41251515770417</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>6.88177430550885</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>11.84207126652637</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.26063849668028</v>
+        <v>25.41714874608809</v>
       </c>
       <c r="C14">
-        <v>21.39990095969562</v>
+        <v>21.63994292683367</v>
       </c>
       <c r="D14">
-        <v>4.408287585306994</v>
+        <v>4.766797468943759</v>
       </c>
       <c r="F14">
-        <v>22.84412224161364</v>
+        <v>21.37099651111719</v>
       </c>
       <c r="G14">
-        <v>30.83554959686923</v>
+        <v>30.4632434084933</v>
       </c>
       <c r="I14">
-        <v>4.521487210201316</v>
+        <v>4.312095665852182</v>
       </c>
       <c r="J14">
-        <v>9.140715843144982</v>
+        <v>8.432499900836378</v>
       </c>
       <c r="K14">
-        <v>11.72962156842466</v>
+        <v>10.95557864965282</v>
+      </c>
+      <c r="L14">
+        <v>10.06865348203314</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>11.42387545800966</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>6.861809097367387</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>11.83072050534091</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.11127025529974</v>
+        <v>25.2922463395934</v>
       </c>
       <c r="C15">
-        <v>21.29498982562303</v>
+        <v>21.55663662103639</v>
       </c>
       <c r="D15">
-        <v>4.397189369452655</v>
+        <v>4.743314169320036</v>
       </c>
       <c r="F15">
-        <v>22.72878836396557</v>
+        <v>21.3181575969143</v>
       </c>
       <c r="G15">
-        <v>30.65628172324245</v>
+        <v>30.12880916154012</v>
       </c>
       <c r="I15">
-        <v>4.498797408038293</v>
+        <v>4.294631179217509</v>
       </c>
       <c r="J15">
-        <v>9.118579063923629</v>
+        <v>8.528993243588618</v>
       </c>
       <c r="K15">
-        <v>11.71828128033057</v>
+        <v>10.97649565419497</v>
+      </c>
+      <c r="L15">
+        <v>10.09696532900279</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>11.43301651798606</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>6.841858152504213</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>11.82671821893886</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.2745908524131</v>
+        <v>24.57984148831757</v>
       </c>
       <c r="C16">
-        <v>20.64634824971651</v>
+        <v>21.00560191797607</v>
       </c>
       <c r="D16">
-        <v>4.321660344861825</v>
+        <v>4.605583819563563</v>
       </c>
       <c r="F16">
-        <v>22.12978820112645</v>
+        <v>21.02835688185197</v>
       </c>
       <c r="G16">
-        <v>29.73738816575568</v>
+        <v>28.47897921420384</v>
       </c>
       <c r="I16">
-        <v>4.365658380596611</v>
+        <v>4.18793181969165</v>
       </c>
       <c r="J16">
-        <v>9.017734083640326</v>
+        <v>8.999790783615609</v>
       </c>
       <c r="K16">
-        <v>11.70789243413628</v>
+        <v>11.12059005494958</v>
+      </c>
+      <c r="L16">
+        <v>10.27463843103473</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>11.47334621114487</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>6.754922566920922</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>11.79914402852734</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.74762061031079</v>
+        <v>24.11574450819758</v>
       </c>
       <c r="C17">
-        <v>20.24009024942624</v>
+        <v>20.63505865043983</v>
       </c>
       <c r="D17">
-        <v>4.274698847239181</v>
+        <v>4.528174989318924</v>
       </c>
       <c r="F17">
-        <v>21.76044947002918</v>
+        <v>20.80722353430314</v>
       </c>
       <c r="G17">
-        <v>29.16916942566275</v>
+        <v>27.60712013623146</v>
       </c>
       <c r="I17">
-        <v>4.283459732580495</v>
+        <v>4.120876713576614</v>
       </c>
       <c r="J17">
-        <v>8.957621435785622</v>
+        <v>9.193419048419356</v>
       </c>
       <c r="K17">
-        <v>11.70515502285603</v>
+        <v>11.19179633017165</v>
+      </c>
+      <c r="L17">
+        <v>10.37364163057993</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>11.49919401310367</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>6.689331675043333</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>11.79047924317362</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.45422810001498</v>
+        <v>23.85312926823604</v>
       </c>
       <c r="C18">
-        <v>19.98702832606726</v>
+        <v>20.39372729581386</v>
       </c>
       <c r="D18">
-        <v>4.242824811646845</v>
+        <v>4.481582025881259</v>
       </c>
       <c r="F18">
-        <v>21.57452901637053</v>
+        <v>20.69045482691152</v>
       </c>
       <c r="G18">
-        <v>28.88918013000725</v>
+        <v>27.20464109863186</v>
       </c>
       <c r="I18">
-        <v>4.234482898234255</v>
+        <v>4.079131319569377</v>
       </c>
       <c r="J18">
-        <v>8.933548516738925</v>
+        <v>9.277719194175228</v>
       </c>
       <c r="K18">
-        <v>11.72510871751471</v>
+        <v>11.24486010547641</v>
+      </c>
+      <c r="L18">
+        <v>10.43841824365486</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>11.50928685537988</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>6.664519913551921</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>11.78280730982796</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.34265595318438</v>
+        <v>23.7514668100041</v>
       </c>
       <c r="C19">
-        <v>19.9133695987922</v>
+        <v>20.32236123084688</v>
       </c>
       <c r="D19">
-        <v>4.235566179164065</v>
+        <v>4.469781943109501</v>
       </c>
       <c r="F19">
-        <v>21.49056757059569</v>
+        <v>20.62804895085183</v>
       </c>
       <c r="G19">
-        <v>28.75682985065002</v>
+        <v>27.04092970623416</v>
       </c>
       <c r="I19">
-        <v>4.21895862605939</v>
+        <v>4.066785492062346</v>
       </c>
       <c r="J19">
-        <v>8.91790352053518</v>
+        <v>9.293308031150014</v>
       </c>
       <c r="K19">
-        <v>11.71646597576519</v>
+        <v>11.24783835283136</v>
+      </c>
+      <c r="L19">
+        <v>10.45076466349561</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>11.51676305972865</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>6.642405068839992</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>11.78492885320249</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.80538539842852</v>
+        <v>24.16729297330361</v>
       </c>
       <c r="C20">
-        <v>20.28239043622063</v>
+        <v>20.6744980863403</v>
       </c>
       <c r="D20">
-        <v>4.279359407616252</v>
+        <v>4.53579135593972</v>
       </c>
       <c r="F20">
-        <v>21.80194407270265</v>
+        <v>20.83443772569007</v>
       </c>
       <c r="G20">
-        <v>29.23358332700598</v>
+        <v>27.69823854354291</v>
       </c>
       <c r="I20">
-        <v>4.292109015691238</v>
+        <v>4.127872396715604</v>
       </c>
       <c r="J20">
-        <v>8.964725542506645</v>
+        <v>9.177193253940242</v>
       </c>
       <c r="K20">
-        <v>11.70690032012064</v>
+        <v>11.18626535507109</v>
+      </c>
+      <c r="L20">
+        <v>10.3643867003712</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>11.49599203876176</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>6.698074945414644</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>11.79066799278747</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.31390437709054</v>
+        <v>25.43438185451075</v>
       </c>
       <c r="C21">
-        <v>21.47000945193297</v>
+        <v>21.65735922187009</v>
       </c>
       <c r="D21">
-        <v>4.419474304646717</v>
+        <v>4.797567929766511</v>
       </c>
       <c r="F21">
-        <v>22.86580391486882</v>
+        <v>21.2905242211161</v>
       </c>
       <c r="G21">
-        <v>30.86195604475464</v>
+        <v>30.82285340937914</v>
       </c>
       <c r="I21">
-        <v>4.533785395837193</v>
+        <v>4.321042549623426</v>
       </c>
       <c r="J21">
-        <v>9.138775294808525</v>
+        <v>8.214019352466259</v>
       </c>
       <c r="K21">
-        <v>11.70872630991233</v>
+        <v>10.89030367915767</v>
+      </c>
+      <c r="L21">
+        <v>10.02237572995424</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>11.42651005030192</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>6.818376280555258</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>11.85127697092627</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.27493469438781</v>
+        <v>26.23451977533163</v>
       </c>
       <c r="C22">
-        <v>22.1974618858771</v>
+        <v>22.24273721083993</v>
       </c>
       <c r="D22">
-        <v>4.502571348622363</v>
+        <v>4.963937831132974</v>
       </c>
       <c r="F22">
-        <v>23.59091727949804</v>
+        <v>21.60078314653616</v>
       </c>
       <c r="G22">
-        <v>31.97540156766656</v>
+        <v>32.96098486175008</v>
       </c>
       <c r="I22">
-        <v>4.688465798776993</v>
+        <v>4.443026255498531</v>
       </c>
       <c r="J22">
-        <v>9.272000686254138</v>
+        <v>7.579709310600326</v>
       </c>
       <c r="K22">
-        <v>11.75109474757043</v>
+        <v>10.71486758334782</v>
+      </c>
+      <c r="L22">
+        <v>9.813717020481052</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>11.37723433445269</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>6.926628314975955</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>11.89428577078561</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.78451640601417</v>
+        <v>25.84642221588543</v>
       </c>
       <c r="C23">
-        <v>21.79130671796722</v>
+        <v>21.94181130131267</v>
       </c>
       <c r="D23">
-        <v>4.452388556224272</v>
+        <v>4.859628326075216</v>
       </c>
       <c r="F23">
-        <v>23.23885253618373</v>
+        <v>21.52012904459366</v>
       </c>
       <c r="G23">
-        <v>31.44322917931247</v>
+        <v>31.70205234031827</v>
       </c>
       <c r="I23">
-        <v>4.604867029327664</v>
+        <v>4.376987475094845</v>
       </c>
       <c r="J23">
-        <v>9.213289702405977</v>
+        <v>8.035866733377897</v>
       </c>
       <c r="K23">
-        <v>11.75452938639492</v>
+        <v>10.85493729452346</v>
+      </c>
+      <c r="L23">
+        <v>9.95167996431508</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>11.39592987832216</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>6.912464147803638</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>11.85468317892568</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.81017959214232</v>
+        <v>24.1739841937601</v>
       </c>
       <c r="C24">
-        <v>20.22915691698624</v>
+        <v>20.62295048325608</v>
       </c>
       <c r="D24">
-        <v>4.267498081588589</v>
+        <v>4.522639372035431</v>
       </c>
       <c r="F24">
-        <v>21.84011069347762</v>
+        <v>20.87711698950036</v>
       </c>
       <c r="G24">
-        <v>29.30586440864458</v>
+        <v>27.75568992081118</v>
       </c>
       <c r="I24">
-        <v>4.285752643631629</v>
+        <v>4.12019572508091</v>
       </c>
       <c r="J24">
-        <v>8.982314326628027</v>
+        <v>9.203026965688725</v>
       </c>
       <c r="K24">
-        <v>11.74898933432308</v>
+        <v>11.22710886932978</v>
+      </c>
+      <c r="L24">
+        <v>10.39280046430382</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>11.48644173636786</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>6.730096830166286</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>11.77882494114928</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.49114319128373</v>
+        <v>21.99432139427637</v>
       </c>
       <c r="C25">
-        <v>18.42153315412235</v>
+        <v>18.73963985531185</v>
       </c>
       <c r="D25">
-        <v>4.058670819547705</v>
+        <v>4.25266930804992</v>
       </c>
       <c r="F25">
-        <v>20.31423944514119</v>
+        <v>19.59843101431656</v>
       </c>
       <c r="G25">
-        <v>26.95323514336671</v>
+        <v>25.45802090860466</v>
       </c>
       <c r="I25">
-        <v>3.932021125150281</v>
+        <v>3.817816586455256</v>
       </c>
       <c r="J25">
-        <v>8.758865570807849</v>
+        <v>9.146793384156508</v>
       </c>
       <c r="K25">
-        <v>11.79332621816741</v>
+        <v>11.40766939311675</v>
+      </c>
+      <c r="L25">
+        <v>10.72976017849966</v>
       </c>
       <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>11.59922365664157</v>
-      </c>
-      <c r="Q25">
+        <v>6.391832783383711</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.80134505729485</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
